--- a/REGULAR/MANGUINAO, GILBERT.xlsx
+++ b/REGULAR/MANGUINAO, GILBERT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C82B445-0D75-4940-A5E4-5AAAE5C53287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="324">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1003,12 +1002,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>5/22-26/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1711,25 +1713,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K811" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K812" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2036,34 +2038,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L811"/>
+  <dimension ref="A2:L812"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A564" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A558" activePane="bottomLeft"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="A567" sqref="A567:XFD567"/>
+      <selection pane="bottomLeft" activeCell="D569" sqref="D569"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2084,7 +2086,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2104,7 +2106,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2124,7 +2126,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2132,7 +2134,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2145,7 +2147,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2162,7 +2164,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2200,7 @@
       </c>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2207,7 +2209,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>145.93640000000016</v>
+        <v>143.43640000000016</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2217,12 +2219,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>109.04200000000003</v>
+        <v>111.54200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -2244,7 +2246,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34895</v>
       </c>
@@ -2264,7 +2266,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34912</v>
       </c>
@@ -2284,7 +2286,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34943</v>
       </c>
@@ -2304,7 +2306,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34973</v>
       </c>
@@ -2324,7 +2326,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35004</v>
       </c>
@@ -2344,7 +2346,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35034</v>
       </c>
@@ -2364,7 +2366,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>44</v>
       </c>
@@ -2382,7 +2384,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>35065</v>
       </c>
@@ -2402,7 +2404,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35096</v>
       </c>
@@ -2422,7 +2424,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35125</v>
       </c>
@@ -2442,7 +2444,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35156</v>
       </c>
@@ -2462,7 +2464,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35186</v>
       </c>
@@ -2482,7 +2484,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35217</v>
       </c>
@@ -2502,7 +2504,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35247</v>
       </c>
@@ -2526,7 +2528,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35278</v>
       </c>
@@ -2546,7 +2548,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35309</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35339</v>
       </c>
@@ -2592,7 +2594,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35370</v>
       </c>
@@ -2612,7 +2614,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35400</v>
       </c>
@@ -2638,7 +2640,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>50</v>
       </c>
@@ -2656,7 +2658,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35431</v>
       </c>
@@ -2676,7 +2678,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35462</v>
       </c>
@@ -2696,7 +2698,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35490</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>35507</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35521</v>
       </c>
@@ -2742,7 +2744,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35551</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>35582</v>
       </c>
@@ -2788,7 +2790,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35612</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>35632</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -2830,7 +2832,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35643</v>
       </c>
@@ -2850,7 +2852,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A39,1)</f>
         <v>35674</v>
@@ -2877,7 +2879,7 @@
         <v>35689</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" ref="A41:A43" si="0">EDATE(A40,1)</f>
         <v>35704</v>
@@ -2898,7 +2900,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -2919,7 +2921,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -2946,7 +2948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>52</v>
@@ -2966,7 +2968,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>53</v>
       </c>
@@ -2984,7 +2986,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>35796</v>
       </c>
@@ -3010,7 +3012,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35827</v>
       </c>
@@ -3036,7 +3038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>56</v>
@@ -3058,7 +3060,7 @@
         <v>35854</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35855</v>
       </c>
@@ -3078,7 +3080,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A49,1)</f>
         <v>35886</v>
@@ -3105,7 +3107,7 @@
         <v>35913</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>35916</v>
       </c>
@@ -3125,7 +3127,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35947</v>
       </c>
@@ -3151,7 +3153,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>45</v>
@@ -3173,7 +3175,7 @@
         <v>35962</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35977</v>
       </c>
@@ -3199,7 +3201,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36008</v>
       </c>
@@ -3219,7 +3221,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36039</v>
       </c>
@@ -3245,7 +3247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36069</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>36081</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>45</v>
@@ -3293,7 +3295,7 @@
         <v>36088</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>59</v>
@@ -3313,7 +3315,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36100</v>
       </c>
@@ -3335,7 +3337,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36130</v>
       </c>
@@ -3359,7 +3361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>63</v>
       </c>
@@ -3377,7 +3379,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36161</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>36187</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>64</v>
@@ -3423,7 +3425,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36192</v>
       </c>
@@ -3449,7 +3451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A65,1)</f>
         <v>36220</v>
@@ -3476,7 +3478,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>45</v>
@@ -3495,7 +3497,7 @@
         <v>36238</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>45</v>
@@ -3514,7 +3516,7 @@
         <v>36243</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>67</v>
@@ -3531,7 +3533,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A66,1)</f>
         <v>36251</v>
@@ -3558,7 +3560,7 @@
         <v>36280</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -3577,7 +3579,7 @@
         <v>36255</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>68</v>
@@ -3594,7 +3596,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" ref="A73" si="1">EDATE(A70,1)</f>
         <v>36281</v>
@@ -3621,7 +3623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>36312</v>
@@ -3648,7 +3650,7 @@
         <v>36320</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>54</v>
@@ -3670,7 +3672,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>71</v>
@@ -3692,7 +3694,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>72</v>
@@ -3712,7 +3714,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>36342</v>
       </c>
@@ -3738,7 +3740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>75</v>
@@ -3758,7 +3760,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36373</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>45</v>
@@ -3806,7 +3808,7 @@
         <v>36398</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>59</v>
@@ -3826,7 +3828,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>36404</v>
       </c>
@@ -3852,7 +3854,7 @@
         <v>36429</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>78</v>
@@ -3870,7 +3872,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>36434</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>36452</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f>EDATE(A85,1)</f>
         <v>36465</v>
@@ -3917,7 +3919,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A86,1)</f>
         <v>36495</v>
@@ -3944,7 +3946,7 @@
         <v>36501</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>79</v>
@@ -3966,7 +3968,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>81</v>
       </c>
@@ -3984,7 +3986,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36556</v>
       </c>
@@ -4010,7 +4012,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>83</v>
@@ -4030,7 +4032,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36557</v>
       </c>
@@ -4054,7 +4056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>36586</v>
       </c>
@@ -4080,7 +4082,7 @@
         <v>36616</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36617</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>36622</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>85</v>
@@ -4126,7 +4128,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36647</v>
       </c>
@@ -4152,7 +4154,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>87</v>
@@ -4174,7 +4176,7 @@
         <v>36732</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>36678</v>
       </c>
@@ -4198,7 +4200,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="49"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A98,1)</f>
         <v>36708</v>
@@ -4225,7 +4227,7 @@
         <v>36735</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>88</v>
@@ -4245,7 +4247,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>36739</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>89</v>
@@ -4293,7 +4295,7 @@
         <v>36770</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>36770</v>
       </c>
@@ -4313,7 +4315,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36800</v>
       </c>
@@ -4339,7 +4341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>83</v>
@@ -4359,7 +4361,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36831</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>36857</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36861</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>93</v>
       </c>
@@ -4429,7 +4431,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>36892</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>36900</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>94</v>
@@ -4477,7 +4479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36923</v>
       </c>
@@ -4503,7 +4505,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A111,1)</f>
         <v>36951</v>
@@ -4524,7 +4526,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A112,1)</f>
         <v>36982</v>
@@ -4545,7 +4547,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37012</v>
       </c>
@@ -4565,7 +4567,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37043</v>
       </c>
@@ -4585,7 +4587,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37073</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A116,1)</f>
         <v>37104</v>
@@ -4632,7 +4634,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" ref="A118:A120" si="2">EDATE(A117,1)</f>
         <v>37135</v>
@@ -4653,7 +4655,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -4678,7 +4680,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="2"/>
         <v>37196</v>
@@ -4705,7 +4707,7 @@
         <v>37200</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>45</v>
@@ -4727,7 +4729,7 @@
         <v>37207</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>99</v>
@@ -4749,7 +4751,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>100</v>
@@ -4771,7 +4773,7 @@
         <v>37218</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>101</v>
@@ -4791,7 +4793,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37226</v>
       </c>
@@ -4815,7 +4817,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>104</v>
       </c>
@@ -4833,7 +4835,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37257</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>37272</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>45</v>
@@ -4881,7 +4883,7 @@
         <v>37278</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>105</v>
@@ -4901,7 +4903,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37288</v>
       </c>
@@ -4927,7 +4929,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>106</v>
@@ -4947,7 +4949,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37316</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>108</v>
@@ -4993,7 +4995,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37347</v>
       </c>
@@ -5019,7 +5021,7 @@
         <v>37351</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="20" t="s">
         <v>109</v>
@@ -5039,7 +5041,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>37377</v>
       </c>
@@ -5059,7 +5061,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37408</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>37414</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>45</v>
@@ -5103,7 +5105,7 @@
         <v>37417</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37438</v>
       </c>
@@ -5123,7 +5125,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37469</v>
       </c>
@@ -5149,7 +5151,7 @@
         <v>37470</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>46</v>
@@ -5171,7 +5173,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>37500</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>37505</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>45</v>
@@ -5219,7 +5221,7 @@
         <v>37509</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>46</v>
@@ -5241,7 +5243,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37530</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>37543</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>112</v>
@@ -5287,7 +5289,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>37561</v>
       </c>
@@ -5313,7 +5315,7 @@
         <v>37575</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>45</v>
@@ -5335,7 +5337,7 @@
         <v>37581</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>100</v>
@@ -5357,7 +5359,7 @@
         <v>37595</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>100</v>
@@ -5379,7 +5381,7 @@
         <v>37613</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>109</v>
@@ -5399,7 +5401,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>37591</v>
       </c>
@@ -5421,7 +5423,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>115</v>
@@ -5441,7 +5443,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
         <v>114</v>
       </c>
@@ -5459,7 +5461,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37622</v>
       </c>
@@ -5485,7 +5487,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>116</v>
@@ -5507,7 +5509,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>45</v>
@@ -5529,7 +5531,7 @@
         <v>37649</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37653</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>37666</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>100</v>
@@ -5577,7 +5579,7 @@
         <v>37684</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>119</v>
@@ -5597,7 +5599,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>37681</v>
       </c>
@@ -5621,7 +5623,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>37712</v>
       </c>
@@ -5645,7 +5647,7 @@
         <v>37713</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>121</v>
@@ -5665,7 +5667,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>37742</v>
       </c>
@@ -5691,7 +5693,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>46</v>
@@ -5713,7 +5715,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>124</v>
@@ -5733,7 +5735,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37773</v>
       </c>
@@ -5757,7 +5759,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>125</v>
@@ -5779,7 +5781,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>129</v>
@@ -5799,7 +5801,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>37803</v>
       </c>
@@ -5825,7 +5827,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="39">
@@ -5845,7 +5847,7 @@
         <v>37827</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>54</v>
@@ -5867,7 +5869,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>45</v>
@@ -5889,7 +5891,7 @@
         <v>37834</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>37834</v>
       </c>
@@ -5911,7 +5913,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>133</v>
@@ -5931,7 +5933,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37865</v>
       </c>
@@ -5957,7 +5959,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A176,1)</f>
         <v>37895</v>
@@ -5978,7 +5980,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A177,1)</f>
         <v>37926</v>
@@ -6005,7 +6007,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>45</v>
@@ -6027,7 +6029,7 @@
         <v>37953</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>45</v>
@@ -6049,7 +6051,7 @@
         <v>37939</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="49">
         <v>37956</v>
       </c>
@@ -6075,7 +6077,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>137</v>
@@ -6095,7 +6097,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="48" t="s">
         <v>138</v>
       </c>
@@ -6113,7 +6115,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>37987</v>
       </c>
@@ -6139,7 +6141,7 @@
         <v>37991</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>46</v>
@@ -6161,7 +6163,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>139</v>
@@ -6181,7 +6183,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38018</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>38047</v>
       </c>
@@ -6227,7 +6229,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>132</v>
@@ -6247,7 +6249,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>38078</v>
       </c>
@@ -6271,7 +6273,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38108</v>
       </c>
@@ -6297,7 +6299,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>106</v>
@@ -6319,7 +6321,7 @@
         <v>38167</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>38139</v>
       </c>
@@ -6343,7 +6345,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37073</v>
       </c>
@@ -6363,7 +6365,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38200</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>145</v>
@@ -6407,7 +6409,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -6425,7 +6427,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>38231</v>
       </c>
@@ -6451,7 +6453,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>38261</v>
       </c>
@@ -6475,7 +6477,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>148</v>
@@ -6495,7 +6497,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>38292</v>
       </c>
@@ -6519,7 +6521,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>38322</v>
       </c>
@@ -6543,7 +6545,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="48" t="s">
         <v>151</v>
       </c>
@@ -6561,7 +6563,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>38353</v>
       </c>
@@ -6585,7 +6587,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A204,1)</f>
         <v>38384</v>
@@ -6610,7 +6612,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" ref="A206:A207" si="3">EDATE(A205,1)</f>
         <v>38412</v>
@@ -6635,7 +6637,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="3"/>
         <v>38443</v>
@@ -6662,7 +6664,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>155</v>
@@ -6682,7 +6684,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>38473</v>
       </c>
@@ -6706,7 +6708,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A209,1)</f>
         <v>38504</v>
@@ -6731,7 +6733,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A210,1)</f>
         <v>38534</v>
@@ -6758,7 +6760,7 @@
         <v>38558</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>158</v>
@@ -6778,7 +6780,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>38565</v>
       </c>
@@ -6802,7 +6804,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>38596</v>
@@ -6827,7 +6829,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A214,1)</f>
         <v>38626</v>
@@ -6852,7 +6854,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38657</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>38678</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>161</v>
@@ -6898,7 +6900,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38687</v>
       </c>
@@ -6922,7 +6924,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>113</v>
@@ -6944,7 +6946,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>162</v>
@@ -6966,7 +6968,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>164</v>
@@ -6986,7 +6988,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="48" t="s">
         <v>165</v>
       </c>
@@ -7004,7 +7006,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>38718</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>38733</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>54</v>
@@ -7052,7 +7054,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>166</v>
@@ -7072,7 +7074,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>38749</v>
       </c>
@@ -7098,7 +7100,7 @@
         <v>38761</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>46</v>
@@ -7120,7 +7122,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>168</v>
@@ -7140,7 +7142,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>38777</v>
       </c>
@@ -7166,7 +7168,7 @@
         <v>38784</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>38808</v>
       </c>
@@ -7190,7 +7192,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f>EDATE(A230,1)</f>
         <v>38838</v>
@@ -7215,7 +7217,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" ref="A232:A233" si="4">EDATE(A231,1)</f>
         <v>38869</v>
@@ -7240,7 +7242,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="4"/>
         <v>38899</v>
@@ -7265,7 +7267,7 @@
         <v>38923</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>173</v>
@@ -7285,7 +7287,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>38930</v>
       </c>
@@ -7311,7 +7313,7 @@
         <v>38940</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>75</v>
@@ -7331,7 +7333,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>38961</v>
       </c>
@@ -7357,7 +7359,7 @@
         <v>38967</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>174</v>
@@ -7377,7 +7379,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>38991</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>38993</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>45</v>
@@ -7425,7 +7427,7 @@
         <v>39009</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>46</v>
@@ -7447,7 +7449,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>45</v>
@@ -7469,7 +7471,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>176</v>
@@ -7489,7 +7491,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39022</v>
       </c>
@@ -7515,7 +7517,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>178</v>
@@ -7535,7 +7537,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>39052</v>
       </c>
@@ -7561,7 +7563,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>113</v>
@@ -7583,7 +7585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>181</v>
@@ -7603,7 +7605,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="48" t="s">
         <v>182</v>
       </c>
@@ -7621,7 +7623,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>39083</v>
       </c>
@@ -7647,7 +7649,7 @@
         <v>39094</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>113</v>
@@ -7669,7 +7671,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>183</v>
@@ -7689,7 +7691,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39114</v>
       </c>
@@ -7713,7 +7715,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A253,1)</f>
         <v>39142</v>
@@ -7738,7 +7740,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" ref="A255:A256" si="5">EDATE(A254,1)</f>
         <v>39173</v>
@@ -7763,7 +7765,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="5"/>
         <v>39203</v>
@@ -7790,7 +7792,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>45</v>
@@ -7812,7 +7814,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>188</v>
@@ -7829,7 +7831,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="49"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>39234</v>
       </c>
@@ -7855,7 +7857,7 @@
         <v>39248</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>157</v>
@@ -7875,7 +7877,7 @@
         <v>39261</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>189</v>
@@ -7895,7 +7897,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f>EDATE(A259,1)</f>
         <v>39264</v>
@@ -7922,7 +7924,7 @@
         <v>39268</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>157</v>
@@ -7942,7 +7944,7 @@
         <v>39288</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>45</v>
@@ -7964,7 +7966,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>190</v>
@@ -7984,7 +7986,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>45</v>
@@ -8006,7 +8008,7 @@
         <v>39307</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A262,1)</f>
         <v>39295</v>
@@ -8031,7 +8033,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" ref="A268:A269" si="6">EDATE(A267,1)</f>
         <v>39326</v>
@@ -8056,7 +8058,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="6"/>
         <v>39356</v>
@@ -8083,7 +8085,7 @@
         <v>39374</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>45</v>
@@ -8105,7 +8107,7 @@
         <v>39378</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>193</v>
@@ -8125,7 +8127,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>39387</v>
       </c>
@@ -8151,7 +8153,7 @@
         <v>39407</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>194</v>
@@ -8171,7 +8173,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>39417</v>
       </c>
@@ -8197,7 +8199,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>195</v>
@@ -8217,7 +8219,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="48" t="s">
         <v>197</v>
       </c>
@@ -8235,7 +8237,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>39448</v>
       </c>
@@ -8261,7 +8263,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>45</v>
@@ -8283,7 +8285,7 @@
         <v>39462</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>45</v>
@@ -8305,7 +8307,7 @@
         <v>39469</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>198</v>
@@ -8325,7 +8327,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>39479</v>
       </c>
@@ -8349,7 +8351,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A281,1)</f>
         <v>39508</v>
@@ -8374,7 +8376,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>201</v>
@@ -8394,7 +8396,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>39539</v>
@@ -8421,7 +8423,7 @@
         <v>39567</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>202</v>
@@ -8441,7 +8443,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>39569</v>
@@ -8468,7 +8470,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>205</v>
@@ -8488,7 +8490,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>39600</v>
@@ -8515,7 +8517,7 @@
         <v>39615</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>46</v>
@@ -8537,7 +8539,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>206</v>
@@ -8557,7 +8559,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A288,1)</f>
         <v>39630</v>
@@ -8584,7 +8586,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>157</v>
@@ -8604,7 +8606,7 @@
         <v>39654</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>209</v>
@@ -8624,7 +8626,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A291,1)</f>
         <v>39661</v>
@@ -8647,7 +8649,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>210</v>
@@ -8667,7 +8669,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" ref="A296" si="7">EDATE(A294,1)</f>
         <v>39692</v>
@@ -8694,7 +8696,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>45</v>
@@ -8716,7 +8718,7 @@
         <v>39557</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>211</v>
@@ -8736,7 +8738,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39722</v>
       </c>
@@ -8762,7 +8764,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>45</v>
@@ -8784,7 +8786,7 @@
         <v>39735</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>212</v>
@@ -8804,7 +8806,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>39753</v>
@@ -8831,7 +8833,7 @@
         <v>39772</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>48</v>
@@ -8853,7 +8855,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>215</v>
@@ -8873,7 +8875,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f>EDATE(A302,1)</f>
         <v>39783</v>
@@ -8898,7 +8900,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
         <v>217</v>
       </c>
@@ -8916,7 +8918,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39814</v>
       </c>
@@ -8940,7 +8942,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>157</v>
@@ -8960,7 +8962,7 @@
         <v>39833</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>220</v>
@@ -8980,7 +8982,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A307,1)</f>
         <v>39845</v>
@@ -9005,7 +9007,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" ref="A311" si="8">EDATE(A310,1)</f>
         <v>39873</v>
@@ -9032,7 +9034,7 @@
         <v>39890</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>222</v>
@@ -9052,7 +9054,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A311,1)</f>
         <v>39904</v>
@@ -9079,7 +9081,7 @@
         <v>39927</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>45</v>
@@ -9101,7 +9103,7 @@
         <v>39933</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>223</v>
@@ -9121,7 +9123,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A313,1)</f>
         <v>39934</v>
@@ -9148,7 +9150,7 @@
         <v>39945</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>45</v>
@@ -9170,7 +9172,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>224</v>
@@ -9190,7 +9192,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f>EDATE(A316,1)</f>
         <v>39965</v>
@@ -9217,7 +9219,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>46</v>
@@ -9237,7 +9239,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>225</v>
@@ -9257,7 +9259,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>39995</v>
@@ -9284,7 +9286,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>227</v>
@@ -9304,7 +9306,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>40026</v>
       </c>
@@ -9328,7 +9330,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>40057</v>
       </c>
@@ -9352,7 +9354,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>40087</v>
       </c>
@@ -9376,7 +9378,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>45</v>
@@ -9398,7 +9400,7 @@
         <v>40114</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>45</v>
@@ -9420,7 +9422,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>229</v>
@@ -9440,7 +9442,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>40118</v>
       </c>
@@ -9466,7 +9468,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>45</v>
@@ -9488,7 +9490,7 @@
         <v>40144</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>232</v>
@@ -9508,7 +9510,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>40148</v>
       </c>
@@ -9532,7 +9534,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="48" t="s">
         <v>234</v>
       </c>
@@ -9550,7 +9552,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>40179</v>
       </c>
@@ -9576,7 +9578,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>235</v>
@@ -9593,7 +9595,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40210</v>
@@ -9620,7 +9622,7 @@
         <v>40214</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>45</v>
@@ -9639,7 +9641,7 @@
         <v>40221</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>237</v>
@@ -9660,7 +9662,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40238</v>
@@ -9687,7 +9689,7 @@
         <v>40262</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>238</v>
@@ -9704,7 +9706,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>40269</v>
@@ -9729,7 +9731,7 @@
         <v>40297</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>239</v>
@@ -9746,7 +9748,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f>EDATE(A342,1)</f>
         <v>40299</v>
@@ -9771,7 +9773,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" ref="A345:A353" si="9">EDATE(A344,1)</f>
         <v>40330</v>
@@ -9796,7 +9798,7 @@
         <v>40358</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="9"/>
         <v>40360</v>
@@ -9823,7 +9825,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>45</v>
@@ -9845,7 +9847,7 @@
         <v>40385</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>45</v>
@@ -9863,7 +9865,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>45</v>
@@ -9885,7 +9887,7 @@
         <v>40386</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>242</v>
@@ -9905,7 +9907,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A346,1)</f>
         <v>40391</v>
@@ -9930,7 +9932,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="9"/>
         <v>40422</v>
@@ -9955,7 +9957,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f t="shared" si="9"/>
         <v>40452</v>
@@ -9980,7 +9982,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>244</v>
@@ -10000,7 +10002,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>40483</v>
       </c>
@@ -10024,7 +10026,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A355,1)</f>
         <v>40513</v>
@@ -10051,7 +10053,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>247</v>
@@ -10071,7 +10073,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="48" t="s">
         <v>249</v>
       </c>
@@ -10089,7 +10091,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>40544</v>
       </c>
@@ -10113,7 +10115,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A359,1)</f>
         <v>40575</v>
@@ -10138,7 +10140,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f t="shared" ref="A361:A369" si="10">EDATE(A360,1)</f>
         <v>40603</v>
@@ -10165,7 +10167,7 @@
         <v>40627</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>94</v>
@@ -10182,7 +10184,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>40634</v>
@@ -10207,7 +10209,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="10"/>
         <v>40664</v>
@@ -10232,7 +10234,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f t="shared" si="10"/>
         <v>40695</v>
@@ -10259,7 +10261,7 @@
         <v>40717</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>218</v>
@@ -10276,7 +10278,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>254</v>
@@ -10298,7 +10300,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="49"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A365,1)</f>
         <v>40725</v>
@@ -10323,7 +10325,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" si="10"/>
         <v>40756</v>
@@ -10348,7 +10350,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40817</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>257</v>
@@ -10394,7 +10396,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>40848</v>
       </c>
@@ -10420,7 +10422,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>40878</v>
       </c>
@@ -10444,7 +10446,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>261</v>
       </c>
@@ -10462,7 +10464,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>40909</v>
       </c>
@@ -10484,7 +10486,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>40969</v>
       </c>
@@ -10508,7 +10510,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A376,1)</f>
         <v>41000</v>
@@ -10535,7 +10537,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" ref="A378" si="11">EDATE(A377,1)</f>
         <v>41030</v>
@@ -10562,7 +10564,7 @@
         <v>41032</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>45</v>
@@ -10581,7 +10583,7 @@
         <v>41051</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>162</v>
@@ -10598,7 +10600,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>41061</v>
       </c>
@@ -10618,7 +10620,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41091</v>
       </c>
@@ -10644,7 +10646,7 @@
         <v>41115</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>45</v>
@@ -10663,7 +10665,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>41122</v>
       </c>
@@ -10689,7 +10691,7 @@
         <v>41144</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>41183</v>
       </c>
@@ -10713,7 +10715,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>45</v>
@@ -10735,7 +10737,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>41214</v>
       </c>
@@ -10761,7 +10763,7 @@
         <v>41264</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>41244</v>
       </c>
@@ -10781,7 +10783,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="49"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>264</v>
       </c>
@@ -10799,7 +10801,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>41275</v>
       </c>
@@ -10825,7 +10827,7 @@
         <v>41281</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A390,1)</f>
         <v>41306</v>
@@ -10846,7 +10848,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="49"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" ref="A392:A395" si="12">EDATE(A391,1)</f>
         <v>41334</v>
@@ -10867,7 +10869,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="12"/>
         <v>41365</v>
@@ -10888,7 +10890,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="49"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f t="shared" si="12"/>
         <v>41395</v>
@@ -10909,7 +10911,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="49"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" si="12"/>
         <v>41426</v>
@@ -10930,7 +10932,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="49"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41456</v>
       </c>
@@ -10954,7 +10956,7 @@
         <v>41480</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41548</v>
       </c>
@@ -10978,7 +10980,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>162</v>
@@ -11000,7 +11002,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>41579</v>
       </c>
@@ -11026,7 +11028,7 @@
         <v>41594</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>41609</v>
       </c>
@@ -11046,7 +11048,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="49"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>113</v>
@@ -11068,7 +11070,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="48" t="s">
         <v>267</v>
       </c>
@@ -11086,7 +11088,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>41640</v>
       </c>
@@ -11110,7 +11112,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A403,1)</f>
         <v>41671</v>
@@ -11131,7 +11133,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="49"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A404,1)</f>
         <v>41699</v>
@@ -11152,7 +11154,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="49"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>41730</v>
       </c>
@@ -11176,7 +11178,7 @@
         <v>41758</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="41"/>
       <c r="B407" s="15" t="s">
         <v>157</v>
@@ -11196,7 +11198,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>41760</v>
       </c>
@@ -11222,7 +11224,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>45</v>
@@ -11241,7 +11243,7 @@
         <v>41787</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>41791</v>
       </c>
@@ -11261,7 +11263,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="49"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>41821</v>
       </c>
@@ -11287,7 +11289,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>41852</v>
       </c>
@@ -11307,7 +11309,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="49"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41883</v>
       </c>
@@ -11333,7 +11335,7 @@
         <v>41885</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>41913</v>
       </c>
@@ -11359,7 +11361,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>177</v>
@@ -11378,7 +11380,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>41944</v>
       </c>
@@ -11404,7 +11406,7 @@
         <v>41957</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>41974</v>
       </c>
@@ -11430,7 +11432,7 @@
         <v>41976</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="48" t="s">
         <v>272</v>
       </c>
@@ -11448,7 +11450,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>42005</v>
       </c>
@@ -11474,7 +11476,7 @@
         <v>42011</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>218</v>
@@ -11493,7 +11495,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42036</v>
       </c>
@@ -11519,7 +11521,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>42064</v>
       </c>
@@ -11545,7 +11547,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42095</v>
       </c>
@@ -11571,7 +11573,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42125</v>
       </c>
@@ -11597,7 +11599,7 @@
         <v>42138</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>42156</v>
       </c>
@@ -11623,7 +11625,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f>EDATE(A425,1)</f>
         <v>42186</v>
@@ -11644,7 +11646,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" ref="A427:A428" si="13">EDATE(A426,1)</f>
         <v>42217</v>
@@ -11665,7 +11667,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f t="shared" si="13"/>
         <v>42248</v>
@@ -11686,7 +11688,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>42278</v>
       </c>
@@ -11712,7 +11714,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f>EDATE(A429,1)</f>
         <v>42309</v>
@@ -11733,7 +11735,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f>EDATE(A430,1)</f>
         <v>42339</v>
@@ -11754,7 +11756,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>279</v>
       </c>
@@ -11769,7 +11771,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <v>42370</v>
       </c>
@@ -11789,7 +11791,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42401</v>
       </c>
@@ -11813,7 +11815,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42430</v>
       </c>
@@ -11839,7 +11841,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>42461</v>
       </c>
@@ -11863,7 +11865,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>45</v>
@@ -11883,7 +11885,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>42491</v>
       </c>
@@ -11909,7 +11911,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>42522</v>
       </c>
@@ -11935,7 +11937,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>45</v>
@@ -11957,7 +11959,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>42552</v>
       </c>
@@ -11983,7 +11985,7 @@
         <v>42572</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>100</v>
@@ -12005,7 +12007,7 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>42583</v>
       </c>
@@ -12031,7 +12033,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>157</v>
@@ -12051,7 +12053,7 @@
         <v>42607</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>42614</v>
       </c>
@@ -12077,7 +12079,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42644</v>
       </c>
@@ -12103,7 +12105,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>42675</v>
       </c>
@@ -12123,7 +12125,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="49"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42705</v>
       </c>
@@ -12149,7 +12151,7 @@
         <v>42719</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="48" t="s">
         <v>286</v>
       </c>
@@ -12167,7 +12169,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>42736</v>
       </c>
@@ -12191,7 +12193,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>54</v>
@@ -12213,7 +12215,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>42767</v>
       </c>
@@ -12233,7 +12235,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A452,1)</f>
         <v>42795</v>
@@ -12254,7 +12256,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f t="shared" ref="A454:A456" si="14">EDATE(A453,1)</f>
         <v>42826</v>
@@ -12275,7 +12277,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -12296,7 +12298,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f t="shared" si="14"/>
         <v>42887</v>
@@ -12317,7 +12319,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42917</v>
       </c>
@@ -12343,7 +12345,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>99</v>
@@ -12365,7 +12367,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42948</v>
       </c>
@@ -12385,7 +12387,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>42979</v>
       </c>
@@ -12405,7 +12407,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43009</v>
       </c>
@@ -12431,7 +12433,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43040</v>
       </c>
@@ -12451,7 +12453,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43070</v>
       </c>
@@ -12475,7 +12477,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="48" t="s">
         <v>292</v>
       </c>
@@ -12493,7 +12495,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <v>43101</v>
       </c>
@@ -12513,7 +12515,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A465,1)</f>
         <v>43132</v>
@@ -12534,7 +12536,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23">
         <f t="shared" ref="A467:A470" si="15">EDATE(A466,1)</f>
         <v>43160</v>
@@ -12555,7 +12557,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -12576,7 +12578,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -12597,7 +12599,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <f t="shared" si="15"/>
         <v>43252</v>
@@ -12618,7 +12620,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43282</v>
       </c>
@@ -12642,7 +12644,7 @@
         <v>42929</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>157</v>
@@ -12662,7 +12664,7 @@
         <v>42936</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>157</v>
@@ -12682,7 +12684,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>100</v>
@@ -12704,7 +12706,7 @@
         <v>42942</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>100</v>
@@ -12726,7 +12728,7 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>42948</v>
       </c>
@@ -12746,7 +12748,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="49"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>42979</v>
       </c>
@@ -12766,7 +12768,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="49"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43009</v>
       </c>
@@ -12792,7 +12794,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>99</v>
@@ -12814,7 +12816,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>45</v>
@@ -12836,7 +12838,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43040</v>
       </c>
@@ -12856,7 +12858,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="49"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43070</v>
       </c>
@@ -12876,7 +12878,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="49"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="48" t="s">
         <v>294</v>
       </c>
@@ -12894,7 +12896,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <v>43466</v>
       </c>
@@ -12914,7 +12916,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <f>EDATE(A484,1)</f>
         <v>43497</v>
@@ -12935,7 +12937,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <f t="shared" ref="A486:A489" si="16">EDATE(A485,1)</f>
         <v>43525</v>
@@ -12956,7 +12958,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -12977,7 +12979,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23">
         <f t="shared" si="16"/>
         <v>43586</v>
@@ -12998,7 +13000,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -13019,7 +13021,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43647</v>
       </c>
@@ -13043,7 +13045,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>45</v>
@@ -13065,7 +13067,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>157</v>
@@ -13085,7 +13087,7 @@
         <v>43645</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>157</v>
@@ -13105,7 +13107,7 @@
         <v>43632</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43678</v>
       </c>
@@ -13125,7 +13127,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="49"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43709</v>
       </c>
@@ -13151,7 +13153,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>113</v>
@@ -13171,7 +13173,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43739</v>
       </c>
@@ -13191,7 +13193,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f>EDATE(A497,1)</f>
         <v>43770</v>
@@ -13212,7 +13214,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A498,1)</f>
         <v>43800</v>
@@ -13233,7 +13235,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="48" t="s">
         <v>296</v>
       </c>
@@ -13251,7 +13253,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43831</v>
       </c>
@@ -13275,7 +13277,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43862</v>
       </c>
@@ -13295,7 +13297,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A502,1)</f>
         <v>43891</v>
@@ -13316,7 +13318,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" ref="A504:A507" si="17">EDATE(A503,1)</f>
         <v>43922</v>
@@ -13337,7 +13339,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -13358,7 +13360,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -13379,7 +13381,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -13400,7 +13402,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44044</v>
       </c>
@@ -13426,7 +13428,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>100</v>
@@ -13446,7 +13448,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>45</v>
@@ -13466,7 +13468,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44075</v>
       </c>
@@ -13492,7 +13494,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f>EDATE(A511,1)</f>
         <v>44105</v>
@@ -13513,7 +13515,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="49"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f>EDATE(A512,1)</f>
         <v>44136</v>
@@ -13534,7 +13536,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="49"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44166</v>
       </c>
@@ -13560,7 +13562,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="48" t="s">
         <v>301</v>
       </c>
@@ -13578,7 +13580,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44197</v>
       </c>
@@ -13602,7 +13604,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f>EDATE(A516,1)</f>
         <v>44228</v>
@@ -13629,7 +13631,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>157</v>
@@ -13646,7 +13648,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>276</v>
@@ -13665,7 +13667,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>45</v>
@@ -13684,7 +13686,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A517,1)</f>
         <v>44256</v>
@@ -13711,7 +13713,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>45</v>
@@ -13733,7 +13735,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <f>EDATE(A521,1)</f>
         <v>44287</v>
@@ -13754,7 +13756,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f t="shared" ref="A524:A527" si="18">EDATE(A523,1)</f>
         <v>44317</v>
@@ -13775,7 +13777,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -13802,7 +13804,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -13829,7 +13831,7 @@
         <v>44403</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -13850,7 +13852,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <f>EDATE(A527,1)</f>
         <v>44440</v>
@@ -13871,7 +13873,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <f t="shared" ref="A529:A530" si="19">EDATE(A528,1)</f>
         <v>44470</v>
@@ -13892,7 +13894,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <f t="shared" si="19"/>
         <v>44501</v>
@@ -13913,7 +13915,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f>EDATE(A530,1)</f>
         <v>44531</v>
@@ -13940,7 +13942,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>305</v>
@@ -13962,7 +13964,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>46</v>
@@ -13984,7 +13986,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>45</v>
@@ -14006,7 +14008,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="48" t="s">
         <v>310</v>
       </c>
@@ -14024,7 +14026,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44562</v>
       </c>
@@ -14048,7 +14050,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>46</v>
@@ -14070,7 +14072,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>311</v>
@@ -14092,7 +14094,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>45</v>
@@ -14114,7 +14116,7 @@
         <v>44594</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f>EDATE(A536,1)</f>
         <v>44593</v>
@@ -14141,7 +14143,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>125</v>
@@ -14163,7 +14165,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f>EDATE(A540,1)</f>
         <v>44621</v>
@@ -14190,7 +14192,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>157</v>
@@ -14210,7 +14212,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f>EDATE(A542,1)</f>
         <v>44652</v>
@@ -14231,7 +14233,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f t="shared" ref="A545:A546" si="20">EDATE(A544,1)</f>
         <v>44682</v>
@@ -14258,7 +14260,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="20"/>
         <v>44713</v>
@@ -14285,7 +14287,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>45</v>
@@ -14307,7 +14309,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>46</v>
@@ -14329,7 +14331,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>45</v>
@@ -14351,7 +14353,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44743</v>
       </c>
@@ -14377,7 +14379,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>45</v>
@@ -14399,7 +14401,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>45</v>
@@ -14421,7 +14423,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44774</v>
       </c>
@@ -14447,7 +14449,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>54</v>
@@ -14469,7 +14471,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>46</v>
@@ -14491,7 +14493,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>45</v>
@@ -14513,7 +14515,7 @@
         <v>44758</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>45</v>
@@ -14535,7 +14537,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44805</v>
       </c>
@@ -14555,7 +14557,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44835</v>
       </c>
@@ -14581,7 +14583,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>45</v>
@@ -14603,7 +14605,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44866</v>
       </c>
@@ -14629,7 +14631,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>45</v>
@@ -14651,7 +14653,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>44896</v>
       </c>
@@ -14671,7 +14673,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="48" t="s">
         <v>322</v>
       </c>
@@ -14689,7 +14691,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44927</v>
       </c>
@@ -14709,7 +14711,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44958</v>
       </c>
@@ -14733,47 +14735,53 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44986</v>
       </c>
       <c r="B567" s="20"/>
-      <c r="C567" s="13"/>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45017</v>
       </c>
       <c r="B568" s="20"/>
-      <c r="C568" s="13"/>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45047</v>
       </c>
-      <c r="B569" s="20"/>
+      <c r="B569" s="20" t="s">
+        <v>157</v>
+      </c>
       <c r="C569" s="13"/>
       <c r="D569" s="39"/>
       <c r="E569" s="9"/>
@@ -14785,15 +14793,19 @@
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
-    </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A570" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B570" s="20"/>
+      <c r="K569" s="49">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A570" s="40"/>
+      <c r="B570" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C570" s="13"/>
-      <c r="D570" s="39"/>
+      <c r="D570" s="39">
+        <v>5</v>
+      </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
       <c r="G570" s="13" t="str">
@@ -14803,11 +14815,13 @@
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
-    </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K570" s="49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -14823,9 +14837,9 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -14841,9 +14855,9 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14859,9 +14873,9 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14877,9 +14891,9 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14895,9 +14909,9 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14913,9 +14927,9 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14931,9 +14945,9 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14949,9 +14963,9 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14967,9 +14981,9 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14985,9 +14999,9 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15003,9 +15017,9 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15021,9 +15035,9 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15039,9 +15053,9 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15057,9 +15071,9 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15075,9 +15089,9 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15093,9 +15107,9 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15111,9 +15125,9 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15129,9 +15143,9 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15147,9 +15161,9 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15165,9 +15179,9 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15183,9 +15197,9 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15201,9 +15215,9 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15219,9 +15233,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15237,9 +15251,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15255,9 +15269,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15273,9 +15287,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15291,9 +15305,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15309,9 +15323,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15327,9 +15341,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15345,9 +15359,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15363,9 +15377,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15381,9 +15395,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15399,9 +15413,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15417,9 +15431,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15435,9 +15449,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15453,9 +15467,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15471,9 +15485,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15489,9 +15503,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15507,9 +15521,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15525,9 +15539,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15543,9 +15557,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15561,9 +15575,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15579,9 +15593,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15597,9 +15611,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15615,9 +15629,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15633,9 +15647,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15651,9 +15665,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15669,9 +15683,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15687,9 +15701,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15705,9 +15719,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15723,9 +15737,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15741,9 +15755,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15759,9 +15773,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15777,9 +15791,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15795,8 +15809,10 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A626" s="40"/>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" s="40">
+        <v>46753</v>
+      </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
       <c r="D626" s="39"/>
@@ -15811,7 +15827,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15827,7 +15843,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15843,7 +15859,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15859,7 +15875,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15875,7 +15891,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15891,7 +15907,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15907,7 +15923,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15923,7 +15939,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15939,7 +15955,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -15955,7 +15971,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -15971,7 +15987,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -15987,7 +16003,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16003,7 +16019,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16019,7 +16035,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16035,7 +16051,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16051,7 +16067,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16067,7 +16083,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16083,7 +16099,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16099,7 +16115,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16115,7 +16131,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16131,7 +16147,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16147,7 +16163,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16163,7 +16179,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16179,7 +16195,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16195,7 +16211,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16211,7 +16227,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16227,7 +16243,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16243,7 +16259,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16259,7 +16275,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16275,7 +16291,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16291,7 +16307,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16307,7 +16323,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16323,7 +16339,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16339,7 +16355,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16355,7 +16371,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16371,7 +16387,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -16387,7 +16403,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -16403,7 +16419,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -16419,7 +16435,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -16435,7 +16451,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -16451,7 +16467,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -16467,7 +16483,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -16483,7 +16499,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -16499,7 +16515,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -16515,7 +16531,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -16531,7 +16547,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -16547,7 +16563,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -16563,7 +16579,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -16579,7 +16595,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -16595,7 +16611,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -16611,7 +16627,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -16627,7 +16643,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -16643,7 +16659,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -16659,7 +16675,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -16675,7 +16691,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -16691,7 +16707,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -16707,7 +16723,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -16723,7 +16739,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -16739,7 +16755,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -16755,7 +16771,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -16771,7 +16787,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -16787,7 +16803,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -16803,7 +16819,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -16819,7 +16835,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -16835,7 +16851,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -16851,7 +16867,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -16867,7 +16883,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -16883,7 +16899,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -16899,7 +16915,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -16915,7 +16931,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -16931,7 +16947,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -16947,7 +16963,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -16963,7 +16979,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -16979,7 +16995,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -16995,7 +17011,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17011,7 +17027,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17027,7 +17043,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -17043,7 +17059,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -17059,7 +17075,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -17075,7 +17091,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -17091,7 +17107,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -17107,7 +17123,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -17123,7 +17139,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -17139,7 +17155,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -17155,7 +17171,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -17171,7 +17187,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -17187,7 +17203,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -17203,7 +17219,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -17219,7 +17235,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -17235,7 +17251,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -17251,7 +17267,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -17267,7 +17283,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -17283,7 +17299,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -17299,7 +17315,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -17315,7 +17331,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -17331,7 +17347,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -17347,7 +17363,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -17363,7 +17379,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -17379,7 +17395,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -17395,7 +17411,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -17411,7 +17427,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -17427,7 +17443,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -17443,7 +17459,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -17459,7 +17475,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -17475,7 +17491,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -17491,7 +17507,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -17507,7 +17523,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -17523,7 +17539,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -17539,7 +17555,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -17555,7 +17571,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -17571,7 +17587,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -17587,7 +17603,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -17603,7 +17619,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -17619,7 +17635,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -17635,7 +17651,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -17651,7 +17667,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -17667,7 +17683,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -17683,7 +17699,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -17699,7 +17715,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -17715,7 +17731,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -17731,7 +17747,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -17747,7 +17763,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -17763,7 +17779,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -17779,7 +17795,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -17795,7 +17811,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -17811,7 +17827,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -17827,7 +17843,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -17843,7 +17859,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -17859,7 +17875,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -17875,7 +17891,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -17891,7 +17907,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -17907,7 +17923,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -17923,7 +17939,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -17939,7 +17955,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -17955,7 +17971,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40"/>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -17971,7 +17987,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40"/>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -17987,7 +18003,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40"/>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -18003,7 +18019,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40"/>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -18019,7 +18035,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40"/>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -18035,7 +18051,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40"/>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -18051,7 +18067,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40"/>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -18067,7 +18083,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40"/>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -18083,7 +18099,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40"/>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -18099,7 +18115,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40"/>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -18115,7 +18131,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40"/>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -18131,7 +18147,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40"/>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -18147,7 +18163,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40"/>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -18163,7 +18179,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40"/>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -18179,7 +18195,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40"/>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -18195,7 +18211,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40"/>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -18211,7 +18227,7 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40"/>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -18227,7 +18243,7 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40"/>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -18243,7 +18259,7 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40"/>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -18259,7 +18275,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40"/>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -18275,7 +18291,7 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40"/>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -18291,7 +18307,7 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40"/>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -18307,7 +18323,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40"/>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -18323,7 +18339,7 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40"/>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -18339,7 +18355,7 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40"/>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -18355,7 +18371,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40"/>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -18371,7 +18387,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40"/>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -18387,7 +18403,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40"/>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -18403,7 +18419,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40"/>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -18419,7 +18435,7 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40"/>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -18435,7 +18451,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40"/>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -18451,7 +18467,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40"/>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -18467,7 +18483,7 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40"/>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -18483,7 +18499,7 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40"/>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -18499,7 +18515,7 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40"/>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -18515,7 +18531,7 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40"/>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -18531,7 +18547,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40"/>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -18547,7 +18563,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40"/>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -18563,7 +18579,7 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40"/>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -18579,7 +18595,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40"/>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -18595,7 +18611,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40"/>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -18611,7 +18627,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40"/>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -18627,7 +18643,7 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40"/>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -18643,7 +18659,7 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40"/>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -18659,7 +18675,7 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40"/>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -18675,7 +18691,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40"/>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -18691,7 +18707,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40"/>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -18707,7 +18723,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40"/>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -18723,7 +18739,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40"/>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -18739,7 +18755,7 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40"/>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -18755,21 +18771,37 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A811" s="41"/>
-      <c r="B811" s="15"/>
-      <c r="C811" s="42"/>
-      <c r="D811" s="43"/>
-      <c r="E811" s="52"/>
-      <c r="F811" s="15"/>
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A811" s="40"/>
+      <c r="B811" s="20"/>
+      <c r="C811" s="13"/>
+      <c r="D811" s="39"/>
+      <c r="E811" s="9"/>
+      <c r="F811" s="20"/>
       <c r="G811" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H811" s="43"/>
-      <c r="I811" s="52"/>
-      <c r="J811" s="12"/>
-      <c r="K811" s="15"/>
+      <c r="H811" s="39"/>
+      <c r="I811" s="9"/>
+      <c r="J811" s="11"/>
+      <c r="K811" s="20"/>
+    </row>
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A812" s="41"/>
+      <c r="B812" s="15"/>
+      <c r="C812" s="42"/>
+      <c r="D812" s="43"/>
+      <c r="E812" s="52"/>
+      <c r="F812" s="15"/>
+      <c r="G812" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H812" s="43"/>
+      <c r="I812" s="52"/>
+      <c r="J812" s="12"/>
+      <c r="K812" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18786,10 +18818,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18812,28 +18844,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -18846,7 +18878,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18875,7 +18907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -18903,17 +18935,17 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18934,7 +18966,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18961,7 +18993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18987,7 +19019,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19013,7 +19045,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19039,7 +19071,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19065,7 +19097,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19091,7 +19123,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19117,7 +19149,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19143,7 +19175,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19163,7 +19195,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19183,7 +19215,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19203,7 +19235,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19224,7 +19256,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19245,7 +19277,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19266,7 +19298,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19287,7 +19319,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19308,7 +19340,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19329,7 +19361,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19350,7 +19382,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19371,7 +19403,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19392,7 +19424,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19413,7 +19445,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19434,7 +19466,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19455,7 +19487,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19476,7 +19508,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19497,7 +19529,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19518,7 +19550,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19539,7 +19571,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19560,7 +19592,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19581,7 +19613,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19602,7 +19634,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19623,7 +19655,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19632,7 +19664,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19641,7 +19673,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19650,7 +19682,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19659,7 +19691,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19668,7 +19700,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19677,7 +19709,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19686,7 +19718,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19695,7 +19727,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19704,7 +19736,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19713,7 +19745,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19722,7 +19754,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19731,7 +19763,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19740,7 +19772,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19749,7 +19781,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19758,7 +19790,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19767,7 +19799,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19776,7 +19808,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19785,7 +19817,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19794,7 +19826,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19803,7 +19835,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19812,7 +19844,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19821,7 +19853,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19830,7 +19862,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19839,7 +19871,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19848,7 +19880,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19857,7 +19889,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19866,7 +19898,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19875,7 +19907,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19884,7 +19916,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MANGUINAO, GILBERT.xlsx
+++ b/REGULAR/MANGUINAO, GILBERT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0394EF-F2E2-4660-B43C-A42A7B83CC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="326">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1009,12 +1008,15 @@
   </si>
   <si>
     <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>7/25,26/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1700,7 +1702,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1717,25 +1719,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K812" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K813" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2042,34 +2044,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L812"/>
+  <dimension ref="A2:L813"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A567" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A567" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K573" sqref="K573"/>
+      <selection pane="bottomLeft" activeCell="I573" sqref="I573"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2090,7 +2092,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2112,7 +2114,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2132,7 +2134,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2140,7 +2142,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2153,7 +2155,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2170,7 +2172,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2208,7 @@
       </c>
       <c r="L8" s="53"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2225,12 +2227,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>113.04200000000003</v>
+        <v>111.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -2252,7 +2254,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34895</v>
       </c>
@@ -2272,7 +2274,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34912</v>
       </c>
@@ -2292,7 +2294,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34943</v>
       </c>
@@ -2312,7 +2314,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34973</v>
       </c>
@@ -2332,7 +2334,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35004</v>
       </c>
@@ -2352,7 +2354,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35034</v>
       </c>
@@ -2372,7 +2374,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>43</v>
       </c>
@@ -2390,7 +2392,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>35065</v>
       </c>
@@ -2410,7 +2412,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35096</v>
       </c>
@@ -2430,7 +2432,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35125</v>
       </c>
@@ -2450,7 +2452,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35156</v>
       </c>
@@ -2470,7 +2472,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35186</v>
       </c>
@@ -2490,7 +2492,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35217</v>
       </c>
@@ -2510,7 +2512,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35247</v>
       </c>
@@ -2534,7 +2536,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35278</v>
       </c>
@@ -2554,7 +2556,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35309</v>
       </c>
@@ -2580,7 +2582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35339</v>
       </c>
@@ -2600,7 +2602,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35370</v>
       </c>
@@ -2620,7 +2622,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35400</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>49</v>
       </c>
@@ -2664,7 +2666,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35431</v>
       </c>
@@ -2684,7 +2686,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35462</v>
       </c>
@@ -2704,7 +2706,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35490</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>35507</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35521</v>
       </c>
@@ -2750,7 +2752,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35551</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>35582</v>
       </c>
@@ -2796,7 +2798,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35612</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>35632</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -2838,7 +2840,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35643</v>
       </c>
@@ -2858,7 +2860,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A39,1)</f>
         <v>35674</v>
@@ -2885,7 +2887,7 @@
         <v>35689</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" ref="A41:A43" si="0">EDATE(A40,1)</f>
         <v>35704</v>
@@ -2906,7 +2908,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -2927,7 +2929,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -2954,7 +2956,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>51</v>
@@ -2974,7 +2976,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>52</v>
       </c>
@@ -2992,7 +2994,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>35796</v>
       </c>
@@ -3018,7 +3020,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35827</v>
       </c>
@@ -3044,7 +3046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>55</v>
@@ -3066,7 +3068,7 @@
         <v>35854</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35855</v>
       </c>
@@ -3086,7 +3088,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A49,1)</f>
         <v>35886</v>
@@ -3113,7 +3115,7 @@
         <v>35913</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>35916</v>
       </c>
@@ -3133,7 +3135,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35947</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>44</v>
@@ -3181,7 +3183,7 @@
         <v>35962</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35977</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36008</v>
       </c>
@@ -3227,7 +3229,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36039</v>
       </c>
@@ -3253,7 +3255,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36069</v>
       </c>
@@ -3279,7 +3281,7 @@
         <v>36081</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>44</v>
@@ -3301,7 +3303,7 @@
         <v>36088</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>58</v>
@@ -3321,7 +3323,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36100</v>
       </c>
@@ -3343,7 +3345,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36130</v>
       </c>
@@ -3367,7 +3369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>62</v>
       </c>
@@ -3385,7 +3387,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36161</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>36187</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>63</v>
@@ -3431,7 +3433,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36192</v>
       </c>
@@ -3457,7 +3459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A65,1)</f>
         <v>36220</v>
@@ -3484,7 +3486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>44</v>
@@ -3503,7 +3505,7 @@
         <v>36238</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>44</v>
@@ -3522,7 +3524,7 @@
         <v>36243</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>66</v>
@@ -3539,7 +3541,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A66,1)</f>
         <v>36251</v>
@@ -3566,7 +3568,7 @@
         <v>36280</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>44</v>
@@ -3585,7 +3587,7 @@
         <v>36255</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>67</v>
@@ -3602,7 +3604,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" ref="A73" si="1">EDATE(A70,1)</f>
         <v>36281</v>
@@ -3629,7 +3631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>36312</v>
@@ -3656,7 +3658,7 @@
         <v>36320</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>53</v>
@@ -3678,7 +3680,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>70</v>
@@ -3700,7 +3702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>71</v>
@@ -3720,7 +3722,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>36342</v>
       </c>
@@ -3746,7 +3748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>74</v>
@@ -3766,7 +3768,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36373</v>
       </c>
@@ -3792,7 +3794,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>44</v>
@@ -3814,7 +3816,7 @@
         <v>36398</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>58</v>
@@ -3834,7 +3836,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>36404</v>
       </c>
@@ -3860,7 +3862,7 @@
         <v>36429</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>77</v>
@@ -3878,7 +3880,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>36434</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>36452</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f>EDATE(A85,1)</f>
         <v>36465</v>
@@ -3925,7 +3927,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f>EDATE(A86,1)</f>
         <v>36495</v>
@@ -3952,7 +3954,7 @@
         <v>36501</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>78</v>
@@ -3974,7 +3976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>80</v>
       </c>
@@ -3992,7 +3994,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36556</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>36542</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>82</v>
@@ -4038,7 +4040,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36557</v>
       </c>
@@ -4062,7 +4064,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>36586</v>
       </c>
@@ -4088,7 +4090,7 @@
         <v>36616</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36617</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>36622</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>84</v>
@@ -4134,7 +4136,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36647</v>
       </c>
@@ -4160,7 +4162,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>86</v>
@@ -4182,7 +4184,7 @@
         <v>36732</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>36678</v>
       </c>
@@ -4206,7 +4208,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="49"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f>EDATE(A98,1)</f>
         <v>36708</v>
@@ -4233,7 +4235,7 @@
         <v>36735</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>87</v>
@@ -4253,7 +4255,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>36739</v>
       </c>
@@ -4277,7 +4279,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>88</v>
@@ -4301,7 +4303,7 @@
         <v>36770</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>36770</v>
       </c>
@@ -4321,7 +4323,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36800</v>
       </c>
@@ -4347,7 +4349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>82</v>
@@ -4367,7 +4369,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36831</v>
       </c>
@@ -4393,7 +4395,7 @@
         <v>36857</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36861</v>
       </c>
@@ -4419,7 +4421,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>92</v>
       </c>
@@ -4437,7 +4439,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>36892</v>
       </c>
@@ -4463,7 +4465,7 @@
         <v>36900</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>93</v>
@@ -4485,7 +4487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36923</v>
       </c>
@@ -4511,7 +4513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A111,1)</f>
         <v>36951</v>
@@ -4532,7 +4534,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A112,1)</f>
         <v>36982</v>
@@ -4553,7 +4555,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37012</v>
       </c>
@@ -4573,7 +4575,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37043</v>
       </c>
@@ -4593,7 +4595,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37073</v>
       </c>
@@ -4619,7 +4621,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A116,1)</f>
         <v>37104</v>
@@ -4640,7 +4642,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" ref="A118:A120" si="2">EDATE(A117,1)</f>
         <v>37135</v>
@@ -4661,7 +4663,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="2"/>
         <v>37165</v>
@@ -4686,7 +4688,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="2"/>
         <v>37196</v>
@@ -4713,7 +4715,7 @@
         <v>37200</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>44</v>
@@ -4735,7 +4737,7 @@
         <v>37207</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>98</v>
@@ -4757,7 +4759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>99</v>
@@ -4779,7 +4781,7 @@
         <v>37218</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>100</v>
@@ -4799,7 +4801,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37226</v>
       </c>
@@ -4823,7 +4825,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>103</v>
       </c>
@@ -4841,7 +4843,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37257</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>37272</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>44</v>
@@ -4889,7 +4891,7 @@
         <v>37278</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>104</v>
@@ -4909,7 +4911,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37288</v>
       </c>
@@ -4935,7 +4937,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>105</v>
@@ -4955,7 +4957,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37316</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>107</v>
@@ -5001,7 +5003,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37347</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>37351</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="20" t="s">
         <v>108</v>
@@ -5047,7 +5049,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>37377</v>
       </c>
@@ -5067,7 +5069,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37408</v>
       </c>
@@ -5091,7 +5093,7 @@
         <v>37414</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>44</v>
@@ -5111,7 +5113,7 @@
         <v>37417</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37438</v>
       </c>
@@ -5131,7 +5133,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37469</v>
       </c>
@@ -5157,7 +5159,7 @@
         <v>37470</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>45</v>
@@ -5179,7 +5181,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>37500</v>
       </c>
@@ -5205,7 +5207,7 @@
         <v>37505</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>44</v>
@@ -5227,7 +5229,7 @@
         <v>37509</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>45</v>
@@ -5249,7 +5251,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37530</v>
       </c>
@@ -5275,7 +5277,7 @@
         <v>37543</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>111</v>
@@ -5295,7 +5297,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>37561</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>37575</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>44</v>
@@ -5343,7 +5345,7 @@
         <v>37581</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>99</v>
@@ -5365,7 +5367,7 @@
         <v>37595</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>99</v>
@@ -5387,7 +5389,7 @@
         <v>37613</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>108</v>
@@ -5407,7 +5409,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>37591</v>
       </c>
@@ -5429,7 +5431,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>114</v>
@@ -5449,7 +5451,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="48" t="s">
         <v>113</v>
       </c>
@@ -5467,7 +5469,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>37622</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>115</v>
@@ -5515,7 +5517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>44</v>
@@ -5537,7 +5539,7 @@
         <v>37649</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37653</v>
       </c>
@@ -5563,7 +5565,7 @@
         <v>37666</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>99</v>
@@ -5585,7 +5587,7 @@
         <v>37684</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>118</v>
@@ -5605,7 +5607,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>37681</v>
       </c>
@@ -5629,7 +5631,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>37712</v>
       </c>
@@ -5653,7 +5655,7 @@
         <v>37713</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>120</v>
@@ -5673,7 +5675,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>37742</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>45</v>
@@ -5721,7 +5723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>123</v>
@@ -5741,7 +5743,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37773</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>124</v>
@@ -5787,7 +5789,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>128</v>
@@ -5807,7 +5809,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>37803</v>
       </c>
@@ -5833,7 +5835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="39">
@@ -5853,7 +5855,7 @@
         <v>37827</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>53</v>
@@ -5875,7 +5877,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>44</v>
@@ -5897,7 +5899,7 @@
         <v>37834</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>37834</v>
       </c>
@@ -5919,7 +5921,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>132</v>
@@ -5939,7 +5941,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37865</v>
       </c>
@@ -5965,7 +5967,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A176,1)</f>
         <v>37895</v>
@@ -5986,7 +5988,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A177,1)</f>
         <v>37926</v>
@@ -6013,7 +6015,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>44</v>
@@ -6035,7 +6037,7 @@
         <v>37953</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>44</v>
@@ -6057,7 +6059,7 @@
         <v>37939</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="49">
         <v>37956</v>
       </c>
@@ -6083,7 +6085,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>136</v>
@@ -6103,7 +6105,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="48" t="s">
         <v>137</v>
       </c>
@@ -6121,7 +6123,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>37987</v>
       </c>
@@ -6147,7 +6149,7 @@
         <v>37991</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>45</v>
@@ -6169,7 +6171,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>138</v>
@@ -6189,7 +6191,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38018</v>
       </c>
@@ -6215,7 +6217,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>38047</v>
       </c>
@@ -6235,7 +6237,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>131</v>
@@ -6255,7 +6257,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>38078</v>
       </c>
@@ -6279,7 +6281,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38108</v>
       </c>
@@ -6305,7 +6307,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>105</v>
@@ -6327,7 +6329,7 @@
         <v>38167</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>38139</v>
       </c>
@@ -6351,7 +6353,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37073</v>
       </c>
@@ -6371,7 +6373,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38200</v>
       </c>
@@ -6395,7 +6397,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>144</v>
@@ -6415,7 +6417,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -6433,7 +6435,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>38231</v>
       </c>
@@ -6459,7 +6461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>38261</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>147</v>
@@ -6503,7 +6505,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>38292</v>
       </c>
@@ -6527,7 +6529,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>38322</v>
       </c>
@@ -6551,7 +6553,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="48" t="s">
         <v>150</v>
       </c>
@@ -6569,7 +6571,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>38353</v>
       </c>
@@ -6593,7 +6595,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A204,1)</f>
         <v>38384</v>
@@ -6618,7 +6620,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" ref="A206:A207" si="3">EDATE(A205,1)</f>
         <v>38412</v>
@@ -6643,7 +6645,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="3"/>
         <v>38443</v>
@@ -6670,7 +6672,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>154</v>
@@ -6690,7 +6692,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>38473</v>
       </c>
@@ -6714,7 +6716,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A209,1)</f>
         <v>38504</v>
@@ -6739,7 +6741,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A210,1)</f>
         <v>38534</v>
@@ -6766,7 +6768,7 @@
         <v>38558</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>157</v>
@@ -6786,7 +6788,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>38565</v>
       </c>
@@ -6810,7 +6812,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>38596</v>
@@ -6835,7 +6837,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A214,1)</f>
         <v>38626</v>
@@ -6860,7 +6862,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38657</v>
       </c>
@@ -6886,7 +6888,7 @@
         <v>38678</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>160</v>
@@ -6906,7 +6908,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38687</v>
       </c>
@@ -6930,7 +6932,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>112</v>
@@ -6952,7 +6954,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>161</v>
@@ -6974,7 +6976,7 @@
         <v>38709</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>163</v>
@@ -6994,7 +6996,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="48" t="s">
         <v>164</v>
       </c>
@@ -7012,7 +7014,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>38718</v>
       </c>
@@ -7038,7 +7040,7 @@
         <v>38733</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>53</v>
@@ -7060,7 +7062,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>165</v>
@@ -7080,7 +7082,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>38749</v>
       </c>
@@ -7106,7 +7108,7 @@
         <v>38761</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>45</v>
@@ -7128,7 +7130,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>167</v>
@@ -7148,7 +7150,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>38777</v>
       </c>
@@ -7174,7 +7176,7 @@
         <v>38784</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>38808</v>
       </c>
@@ -7198,7 +7200,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f>EDATE(A230,1)</f>
         <v>38838</v>
@@ -7223,7 +7225,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" ref="A232:A233" si="4">EDATE(A231,1)</f>
         <v>38869</v>
@@ -7248,7 +7250,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f t="shared" si="4"/>
         <v>38899</v>
@@ -7273,7 +7275,7 @@
         <v>38923</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>172</v>
@@ -7293,7 +7295,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>38930</v>
       </c>
@@ -7319,7 +7321,7 @@
         <v>38940</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>74</v>
@@ -7339,7 +7341,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>38961</v>
       </c>
@@ -7365,7 +7367,7 @@
         <v>38967</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>173</v>
@@ -7385,7 +7387,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>38991</v>
       </c>
@@ -7411,7 +7413,7 @@
         <v>38993</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>44</v>
@@ -7433,7 +7435,7 @@
         <v>39009</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>45</v>
@@ -7455,7 +7457,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>44</v>
@@ -7477,7 +7479,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>175</v>
@@ -7497,7 +7499,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39022</v>
       </c>
@@ -7523,7 +7525,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>177</v>
@@ -7543,7 +7545,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>39052</v>
       </c>
@@ -7569,7 +7571,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>112</v>
@@ -7591,7 +7593,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>180</v>
@@ -7611,7 +7613,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="48" t="s">
         <v>181</v>
       </c>
@@ -7629,7 +7631,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>39083</v>
       </c>
@@ -7655,7 +7657,7 @@
         <v>39094</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>112</v>
@@ -7677,7 +7679,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>182</v>
@@ -7697,7 +7699,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39114</v>
       </c>
@@ -7721,7 +7723,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A253,1)</f>
         <v>39142</v>
@@ -7746,7 +7748,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" ref="A255:A256" si="5">EDATE(A254,1)</f>
         <v>39173</v>
@@ -7771,7 +7773,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="5"/>
         <v>39203</v>
@@ -7798,7 +7800,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>44</v>
@@ -7820,7 +7822,7 @@
         <v>39231</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>187</v>
@@ -7837,7 +7839,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="49"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>39234</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>39248</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>156</v>
@@ -7883,7 +7885,7 @@
         <v>39261</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>188</v>
@@ -7903,7 +7905,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f>EDATE(A259,1)</f>
         <v>39264</v>
@@ -7930,7 +7932,7 @@
         <v>39268</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>156</v>
@@ -7950,7 +7952,7 @@
         <v>39288</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>44</v>
@@ -7972,7 +7974,7 @@
         <v>39283</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>189</v>
@@ -7992,7 +7994,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>44</v>
@@ -8014,7 +8016,7 @@
         <v>39307</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A262,1)</f>
         <v>39295</v>
@@ -8039,7 +8041,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" ref="A268:A269" si="6">EDATE(A267,1)</f>
         <v>39326</v>
@@ -8064,7 +8066,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="6"/>
         <v>39356</v>
@@ -8091,7 +8093,7 @@
         <v>39374</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>44</v>
@@ -8113,7 +8115,7 @@
         <v>39378</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>192</v>
@@ -8133,7 +8135,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>39387</v>
       </c>
@@ -8159,7 +8161,7 @@
         <v>39407</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>193</v>
@@ -8179,7 +8181,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>39417</v>
       </c>
@@ -8205,7 +8207,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>194</v>
@@ -8225,7 +8227,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="48" t="s">
         <v>196</v>
       </c>
@@ -8243,7 +8245,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>39448</v>
       </c>
@@ -8269,7 +8271,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>44</v>
@@ -8291,7 +8293,7 @@
         <v>39462</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>44</v>
@@ -8313,7 +8315,7 @@
         <v>39469</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>197</v>
@@ -8333,7 +8335,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>39479</v>
       </c>
@@ -8357,7 +8359,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A281,1)</f>
         <v>39508</v>
@@ -8382,7 +8384,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>200</v>
@@ -8402,7 +8404,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>39539</v>
@@ -8429,7 +8431,7 @@
         <v>39567</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>201</v>
@@ -8449,7 +8451,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>39569</v>
@@ -8476,7 +8478,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>204</v>
@@ -8496,7 +8498,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>39600</v>
@@ -8523,7 +8525,7 @@
         <v>39615</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>45</v>
@@ -8545,7 +8547,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>205</v>
@@ -8565,7 +8567,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A288,1)</f>
         <v>39630</v>
@@ -8592,7 +8594,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>156</v>
@@ -8612,7 +8614,7 @@
         <v>39654</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>208</v>
@@ -8632,7 +8634,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A291,1)</f>
         <v>39661</v>
@@ -8655,7 +8657,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>209</v>
@@ -8675,7 +8677,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" ref="A296" si="7">EDATE(A294,1)</f>
         <v>39692</v>
@@ -8702,7 +8704,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>44</v>
@@ -8724,7 +8726,7 @@
         <v>39557</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>210</v>
@@ -8744,7 +8746,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39722</v>
       </c>
@@ -8770,7 +8772,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>44</v>
@@ -8792,7 +8794,7 @@
         <v>39735</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>211</v>
@@ -8812,7 +8814,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>39753</v>
@@ -8839,7 +8841,7 @@
         <v>39772</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>47</v>
@@ -8861,7 +8863,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>214</v>
@@ -8881,7 +8883,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f>EDATE(A302,1)</f>
         <v>39783</v>
@@ -8906,7 +8908,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="48" t="s">
         <v>216</v>
       </c>
@@ -8924,7 +8926,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39814</v>
       </c>
@@ -8948,7 +8950,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>156</v>
@@ -8968,7 +8970,7 @@
         <v>39833</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>219</v>
@@ -8988,7 +8990,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A307,1)</f>
         <v>39845</v>
@@ -9013,7 +9015,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" ref="A311" si="8">EDATE(A310,1)</f>
         <v>39873</v>
@@ -9040,7 +9042,7 @@
         <v>39890</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>221</v>
@@ -9060,7 +9062,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A311,1)</f>
         <v>39904</v>
@@ -9087,7 +9089,7 @@
         <v>39927</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>44</v>
@@ -9109,7 +9111,7 @@
         <v>39933</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>222</v>
@@ -9129,7 +9131,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A313,1)</f>
         <v>39934</v>
@@ -9156,7 +9158,7 @@
         <v>39945</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>44</v>
@@ -9178,7 +9180,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>223</v>
@@ -9198,7 +9200,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f>EDATE(A316,1)</f>
         <v>39965</v>
@@ -9225,7 +9227,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>45</v>
@@ -9245,7 +9247,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>224</v>
@@ -9265,7 +9267,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>39995</v>
@@ -9292,7 +9294,7 @@
         <v>40018</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>226</v>
@@ -9312,7 +9314,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>40026</v>
       </c>
@@ -9336,7 +9338,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>40057</v>
       </c>
@@ -9360,7 +9362,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>40087</v>
       </c>
@@ -9384,7 +9386,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>44</v>
@@ -9406,7 +9408,7 @@
         <v>40114</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>44</v>
@@ -9428,7 +9430,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>228</v>
@@ -9448,7 +9450,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>40118</v>
       </c>
@@ -9474,7 +9476,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>44</v>
@@ -9496,7 +9498,7 @@
         <v>40144</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>231</v>
@@ -9516,7 +9518,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>40148</v>
       </c>
@@ -9540,7 +9542,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="48" t="s">
         <v>233</v>
       </c>
@@ -9558,7 +9560,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>40179</v>
       </c>
@@ -9584,7 +9586,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>234</v>
@@ -9601,7 +9603,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40210</v>
@@ -9628,7 +9630,7 @@
         <v>40214</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>44</v>
@@ -9647,7 +9649,7 @@
         <v>40221</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>236</v>
@@ -9668,7 +9670,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40238</v>
@@ -9695,7 +9697,7 @@
         <v>40262</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>237</v>
@@ -9712,7 +9714,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>40269</v>
@@ -9737,7 +9739,7 @@
         <v>40297</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>238</v>
@@ -9754,7 +9756,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f>EDATE(A342,1)</f>
         <v>40299</v>
@@ -9779,7 +9781,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" ref="A345:A353" si="9">EDATE(A344,1)</f>
         <v>40330</v>
@@ -9804,7 +9806,7 @@
         <v>40358</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="9"/>
         <v>40360</v>
@@ -9831,7 +9833,7 @@
         <v>40373</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>44</v>
@@ -9853,7 +9855,7 @@
         <v>40385</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>44</v>
@@ -9871,7 +9873,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>44</v>
@@ -9893,7 +9895,7 @@
         <v>40386</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>241</v>
@@ -9913,7 +9915,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A346,1)</f>
         <v>40391</v>
@@ -9938,7 +9940,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="9"/>
         <v>40422</v>
@@ -9963,7 +9965,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f t="shared" si="9"/>
         <v>40452</v>
@@ -9988,7 +9990,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>243</v>
@@ -10008,7 +10010,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>40483</v>
       </c>
@@ -10032,7 +10034,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A355,1)</f>
         <v>40513</v>
@@ -10059,7 +10061,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>246</v>
@@ -10079,7 +10081,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="48" t="s">
         <v>248</v>
       </c>
@@ -10097,7 +10099,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>40544</v>
       </c>
@@ -10121,7 +10123,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A359,1)</f>
         <v>40575</v>
@@ -10146,7 +10148,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f t="shared" ref="A361:A369" si="10">EDATE(A360,1)</f>
         <v>40603</v>
@@ -10173,7 +10175,7 @@
         <v>40627</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>93</v>
@@ -10190,7 +10192,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>40634</v>
@@ -10215,7 +10217,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="10"/>
         <v>40664</v>
@@ -10240,7 +10242,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f t="shared" si="10"/>
         <v>40695</v>
@@ -10267,7 +10269,7 @@
         <v>40717</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>217</v>
@@ -10284,7 +10286,7 @@
         <v>40749</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>253</v>
@@ -10306,7 +10308,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="49"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A365,1)</f>
         <v>40725</v>
@@ -10331,7 +10333,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" si="10"/>
         <v>40756</v>
@@ -10356,7 +10358,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40817</v>
       </c>
@@ -10382,7 +10384,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>256</v>
@@ -10402,7 +10404,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>40848</v>
       </c>
@@ -10428,7 +10430,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>40878</v>
       </c>
@@ -10452,7 +10454,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>260</v>
       </c>
@@ -10470,7 +10472,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>40909</v>
       </c>
@@ -10492,7 +10494,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>40969</v>
       </c>
@@ -10516,7 +10518,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A376,1)</f>
         <v>41000</v>
@@ -10543,7 +10545,7 @@
         <v>41010</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" ref="A378" si="11">EDATE(A377,1)</f>
         <v>41030</v>
@@ -10570,7 +10572,7 @@
         <v>41032</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>44</v>
@@ -10589,7 +10591,7 @@
         <v>41051</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>161</v>
@@ -10606,7 +10608,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>41061</v>
       </c>
@@ -10626,7 +10628,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41091</v>
       </c>
@@ -10652,7 +10654,7 @@
         <v>41115</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>44</v>
@@ -10671,7 +10673,7 @@
         <v>41120</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>41122</v>
       </c>
@@ -10697,7 +10699,7 @@
         <v>41144</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>41183</v>
       </c>
@@ -10721,7 +10723,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>44</v>
@@ -10743,7 +10745,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>41214</v>
       </c>
@@ -10769,7 +10771,7 @@
         <v>41264</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>41244</v>
       </c>
@@ -10789,7 +10791,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="49"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>263</v>
       </c>
@@ -10807,7 +10809,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>41275</v>
       </c>
@@ -10833,7 +10835,7 @@
         <v>41281</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A390,1)</f>
         <v>41306</v>
@@ -10854,7 +10856,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="49"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" ref="A392:A395" si="12">EDATE(A391,1)</f>
         <v>41334</v>
@@ -10875,7 +10877,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="49"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="12"/>
         <v>41365</v>
@@ -10896,7 +10898,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="49"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <f t="shared" si="12"/>
         <v>41395</v>
@@ -10917,7 +10919,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="49"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f t="shared" si="12"/>
         <v>41426</v>
@@ -10938,7 +10940,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="49"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>41456</v>
       </c>
@@ -10962,7 +10964,7 @@
         <v>41480</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41548</v>
       </c>
@@ -10986,7 +10988,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>161</v>
@@ -11008,7 +11010,7 @@
         <v>41572</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>41579</v>
       </c>
@@ -11034,7 +11036,7 @@
         <v>41594</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>41609</v>
       </c>
@@ -11054,7 +11056,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="49"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>112</v>
@@ -11076,7 +11078,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="48" t="s">
         <v>266</v>
       </c>
@@ -11094,7 +11096,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>41640</v>
       </c>
@@ -11118,7 +11120,7 @@
         <v>41661</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A403,1)</f>
         <v>41671</v>
@@ -11139,7 +11141,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="49"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A404,1)</f>
         <v>41699</v>
@@ -11160,7 +11162,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="49"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>41730</v>
       </c>
@@ -11184,7 +11186,7 @@
         <v>41758</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="41"/>
       <c r="B407" s="15" t="s">
         <v>156</v>
@@ -11204,7 +11206,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>41760</v>
       </c>
@@ -11230,7 +11232,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>44</v>
@@ -11249,7 +11251,7 @@
         <v>41787</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>41791</v>
       </c>
@@ -11269,7 +11271,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="49"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>41821</v>
       </c>
@@ -11295,7 +11297,7 @@
         <v>41845</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>41852</v>
       </c>
@@ -11315,7 +11317,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="49"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41883</v>
       </c>
@@ -11341,7 +11343,7 @@
         <v>41885</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>41913</v>
       </c>
@@ -11367,7 +11369,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>176</v>
@@ -11386,7 +11388,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>41944</v>
       </c>
@@ -11412,7 +11414,7 @@
         <v>41957</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>41974</v>
       </c>
@@ -11438,7 +11440,7 @@
         <v>41976</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="48" t="s">
         <v>271</v>
       </c>
@@ -11456,7 +11458,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>42005</v>
       </c>
@@ -11482,7 +11484,7 @@
         <v>42011</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>217</v>
@@ -11501,7 +11503,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42036</v>
       </c>
@@ -11527,7 +11529,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>42064</v>
       </c>
@@ -11553,7 +11555,7 @@
         <v>42090</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42095</v>
       </c>
@@ -11579,7 +11581,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42125</v>
       </c>
@@ -11605,7 +11607,7 @@
         <v>42138</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>42156</v>
       </c>
@@ -11631,7 +11633,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f>EDATE(A425,1)</f>
         <v>42186</v>
@@ -11652,7 +11654,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" ref="A427:A428" si="13">EDATE(A426,1)</f>
         <v>42217</v>
@@ -11673,7 +11675,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f t="shared" si="13"/>
         <v>42248</v>
@@ -11694,7 +11696,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>42278</v>
       </c>
@@ -11720,7 +11722,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f>EDATE(A429,1)</f>
         <v>42309</v>
@@ -11741,7 +11743,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f>EDATE(A430,1)</f>
         <v>42339</v>
@@ -11762,7 +11764,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>278</v>
       </c>
@@ -11777,7 +11779,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23">
         <v>42370</v>
       </c>
@@ -11797,7 +11799,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42401</v>
       </c>
@@ -11821,7 +11823,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>42430</v>
       </c>
@@ -11847,7 +11849,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>42461</v>
       </c>
@@ -11871,7 +11873,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>44</v>
@@ -11891,7 +11893,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>42491</v>
       </c>
@@ -11917,7 +11919,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>42522</v>
       </c>
@@ -11943,7 +11945,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>44</v>
@@ -11965,7 +11967,7 @@
         <v>42544</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>42552</v>
       </c>
@@ -11991,7 +11993,7 @@
         <v>42572</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>99</v>
@@ -12013,7 +12015,7 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>42583</v>
       </c>
@@ -12039,7 +12041,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>156</v>
@@ -12059,7 +12061,7 @@
         <v>42607</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>42614</v>
       </c>
@@ -12085,7 +12087,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42644</v>
       </c>
@@ -12111,7 +12113,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>42675</v>
       </c>
@@ -12131,7 +12133,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="49"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>42705</v>
       </c>
@@ -12157,7 +12159,7 @@
         <v>42719</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="48" t="s">
         <v>285</v>
       </c>
@@ -12175,7 +12177,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>42736</v>
       </c>
@@ -12199,7 +12201,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>53</v>
@@ -12221,7 +12223,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>42767</v>
       </c>
@@ -12241,7 +12243,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A452,1)</f>
         <v>42795</v>
@@ -12262,7 +12264,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f t="shared" ref="A454:A456" si="14">EDATE(A453,1)</f>
         <v>42826</v>
@@ -12283,7 +12285,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -12304,7 +12306,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f t="shared" si="14"/>
         <v>42887</v>
@@ -12325,7 +12327,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42917</v>
       </c>
@@ -12351,7 +12353,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>98</v>
@@ -12373,7 +12375,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42948</v>
       </c>
@@ -12393,7 +12395,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>42979</v>
       </c>
@@ -12413,7 +12415,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43009</v>
       </c>
@@ -12439,7 +12441,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>43040</v>
       </c>
@@ -12459,7 +12461,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43070</v>
       </c>
@@ -12483,7 +12485,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="48" t="s">
         <v>291</v>
       </c>
@@ -12501,7 +12503,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <v>43101</v>
       </c>
@@ -12521,7 +12523,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A465,1)</f>
         <v>43132</v>
@@ -12542,7 +12544,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23">
         <f t="shared" ref="A467:A470" si="15">EDATE(A466,1)</f>
         <v>43160</v>
@@ -12563,7 +12565,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -12584,7 +12586,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -12605,7 +12607,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <f t="shared" si="15"/>
         <v>43252</v>
@@ -12626,7 +12628,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43282</v>
       </c>
@@ -12650,7 +12652,7 @@
         <v>42929</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>156</v>
@@ -12670,7 +12672,7 @@
         <v>42936</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>156</v>
@@ -12690,7 +12692,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>99</v>
@@ -12712,7 +12714,7 @@
         <v>42942</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>99</v>
@@ -12734,7 +12736,7 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>42948</v>
       </c>
@@ -12754,7 +12756,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="49"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>42979</v>
       </c>
@@ -12774,7 +12776,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="49"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43009</v>
       </c>
@@ -12800,7 +12802,7 @@
         <v>43013</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>98</v>
@@ -12822,7 +12824,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>44</v>
@@ -12844,7 +12846,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43040</v>
       </c>
@@ -12864,7 +12866,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="49"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43070</v>
       </c>
@@ -12884,7 +12886,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="49"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="48" t="s">
         <v>293</v>
       </c>
@@ -12902,7 +12904,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <v>43466</v>
       </c>
@@ -12922,7 +12924,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <f>EDATE(A484,1)</f>
         <v>43497</v>
@@ -12943,7 +12945,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <f t="shared" ref="A486:A489" si="16">EDATE(A485,1)</f>
         <v>43525</v>
@@ -12964,7 +12966,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -12985,7 +12987,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23">
         <f t="shared" si="16"/>
         <v>43586</v>
@@ -13006,7 +13008,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -13027,7 +13029,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43647</v>
       </c>
@@ -13051,7 +13053,7 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>44</v>
@@ -13073,7 +13075,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>156</v>
@@ -13093,7 +13095,7 @@
         <v>43645</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>156</v>
@@ -13113,7 +13115,7 @@
         <v>43632</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43678</v>
       </c>
@@ -13133,7 +13135,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="49"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43709</v>
       </c>
@@ -13159,7 +13161,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>112</v>
@@ -13179,7 +13181,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43739</v>
       </c>
@@ -13199,7 +13201,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f>EDATE(A497,1)</f>
         <v>43770</v>
@@ -13220,7 +13222,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A498,1)</f>
         <v>43800</v>
@@ -13241,7 +13243,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="48" t="s">
         <v>295</v>
       </c>
@@ -13259,7 +13261,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43831</v>
       </c>
@@ -13283,7 +13285,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43862</v>
       </c>
@@ -13303,7 +13305,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A502,1)</f>
         <v>43891</v>
@@ -13324,7 +13326,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" ref="A504:A507" si="17">EDATE(A503,1)</f>
         <v>43922</v>
@@ -13345,7 +13347,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -13366,7 +13368,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -13387,7 +13389,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -13408,7 +13410,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44044</v>
       </c>
@@ -13434,7 +13436,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>99</v>
@@ -13454,7 +13456,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>44</v>
@@ -13474,7 +13476,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44075</v>
       </c>
@@ -13500,7 +13502,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f>EDATE(A511,1)</f>
         <v>44105</v>
@@ -13521,7 +13523,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="49"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f>EDATE(A512,1)</f>
         <v>44136</v>
@@ -13542,7 +13544,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="49"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44166</v>
       </c>
@@ -13568,7 +13570,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="48" t="s">
         <v>300</v>
       </c>
@@ -13586,7 +13588,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44197</v>
       </c>
@@ -13610,7 +13612,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f>EDATE(A516,1)</f>
         <v>44228</v>
@@ -13637,7 +13639,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>156</v>
@@ -13654,7 +13656,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>275</v>
@@ -13673,7 +13675,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>44</v>
@@ -13692,7 +13694,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A517,1)</f>
         <v>44256</v>
@@ -13719,7 +13721,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>44</v>
@@ -13741,7 +13743,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <f>EDATE(A521,1)</f>
         <v>44287</v>
@@ -13762,7 +13764,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f t="shared" ref="A524:A527" si="18">EDATE(A523,1)</f>
         <v>44317</v>
@@ -13783,7 +13785,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -13810,7 +13812,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -13837,7 +13839,7 @@
         <v>44403</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -13858,7 +13860,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <f>EDATE(A527,1)</f>
         <v>44440</v>
@@ -13879,7 +13881,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <f t="shared" ref="A529:A530" si="19">EDATE(A528,1)</f>
         <v>44470</v>
@@ -13900,7 +13902,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <f t="shared" si="19"/>
         <v>44501</v>
@@ -13921,7 +13923,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f>EDATE(A530,1)</f>
         <v>44531</v>
@@ -13948,7 +13950,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>304</v>
@@ -13970,7 +13972,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>45</v>
@@ -13992,7 +13994,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>44</v>
@@ -14014,7 +14016,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="48" t="s">
         <v>309</v>
       </c>
@@ -14032,7 +14034,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44562</v>
       </c>
@@ -14056,7 +14058,7 @@
         <v>44573</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>45</v>
@@ -14078,7 +14080,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>310</v>
@@ -14100,7 +14102,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>44</v>
@@ -14122,7 +14124,7 @@
         <v>44594</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f>EDATE(A536,1)</f>
         <v>44593</v>
@@ -14149,7 +14151,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>124</v>
@@ -14171,7 +14173,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f>EDATE(A540,1)</f>
         <v>44621</v>
@@ -14198,7 +14200,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>156</v>
@@ -14218,7 +14220,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f>EDATE(A542,1)</f>
         <v>44652</v>
@@ -14239,7 +14241,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f t="shared" ref="A545:A546" si="20">EDATE(A544,1)</f>
         <v>44682</v>
@@ -14266,7 +14268,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="20"/>
         <v>44713</v>
@@ -14293,7 +14295,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>44</v>
@@ -14315,7 +14317,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>45</v>
@@ -14337,7 +14339,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>44</v>
@@ -14359,7 +14361,7 @@
         <v>44741</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44743</v>
       </c>
@@ -14385,7 +14387,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>44</v>
@@ -14407,7 +14409,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>44</v>
@@ -14429,7 +14431,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44774</v>
       </c>
@@ -14455,7 +14457,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>53</v>
@@ -14477,7 +14479,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>45</v>
@@ -14499,7 +14501,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>44</v>
@@ -14521,7 +14523,7 @@
         <v>44758</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>44</v>
@@ -14543,7 +14545,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44805</v>
       </c>
@@ -14563,7 +14565,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44835</v>
       </c>
@@ -14589,7 +14591,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>44</v>
@@ -14611,7 +14613,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>44866</v>
       </c>
@@ -14637,7 +14639,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>44</v>
@@ -14659,7 +14661,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>44896</v>
       </c>
@@ -14679,7 +14681,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="48" t="s">
         <v>321</v>
       </c>
@@ -14697,7 +14699,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44927</v>
       </c>
@@ -14717,7 +14719,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>44958</v>
       </c>
@@ -14741,7 +14743,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44986</v>
       </c>
@@ -14761,7 +14763,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45017</v>
       </c>
@@ -14781,7 +14783,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45047</v>
       </c>
@@ -14805,7 +14807,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>60</v>
@@ -14827,7 +14829,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45078</v>
       </c>
@@ -14847,7 +14849,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>45108</v>
       </c>
@@ -14871,11 +14873,11 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A573" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B573" s="20"/>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A573" s="40"/>
+      <c r="B573" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
       <c r="E573" s="9"/>
@@ -14884,14 +14886,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H573" s="39"/>
+      <c r="H573" s="39">
+        <v>2</v>
+      </c>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="20"/>
-    </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K573" s="49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14907,9 +14913,9 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14925,9 +14931,9 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14943,9 +14949,9 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14961,9 +14967,9 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14979,9 +14985,9 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14997,9 +15003,9 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15015,9 +15021,9 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15033,9 +15039,9 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15051,9 +15057,9 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15069,9 +15075,9 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15087,9 +15093,9 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15105,9 +15111,9 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15123,9 +15129,9 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15141,9 +15147,9 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15159,9 +15165,9 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15177,9 +15183,9 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15195,9 +15201,9 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15213,9 +15219,9 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15231,9 +15237,9 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15249,9 +15255,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15267,9 +15273,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15285,9 +15291,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15303,9 +15309,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15321,9 +15327,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15339,9 +15345,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15357,9 +15363,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15375,9 +15381,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15393,9 +15399,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15411,9 +15417,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15429,9 +15435,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15447,9 +15453,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15465,9 +15471,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15483,9 +15489,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15501,9 +15507,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15519,9 +15525,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15537,9 +15543,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15555,9 +15561,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15573,9 +15579,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15591,9 +15597,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15609,9 +15615,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15627,9 +15633,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15645,9 +15651,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15663,9 +15669,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15681,9 +15687,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15699,9 +15705,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15717,9 +15723,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15735,9 +15741,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15753,9 +15759,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15771,9 +15777,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15789,9 +15795,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15807,9 +15813,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15825,9 +15831,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15843,8 +15849,10 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A627" s="40"/>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A627" s="40">
+        <v>46753</v>
+      </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
       <c r="D627" s="39"/>
@@ -15859,7 +15867,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15875,7 +15883,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15891,7 +15899,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15907,7 +15915,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15923,7 +15931,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15939,7 +15947,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15955,7 +15963,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15971,7 +15979,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -15987,7 +15995,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16003,7 +16011,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16019,7 +16027,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16035,7 +16043,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16051,7 +16059,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16067,7 +16075,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16083,7 +16091,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16099,7 +16107,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16115,7 +16123,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16131,7 +16139,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16147,7 +16155,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16163,7 +16171,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16179,7 +16187,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16195,7 +16203,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16211,7 +16219,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16227,7 +16235,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16243,7 +16251,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16259,7 +16267,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16275,7 +16283,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16291,7 +16299,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16307,7 +16315,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16323,7 +16331,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16339,7 +16347,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16355,7 +16363,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16371,7 +16379,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16387,7 +16395,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16403,7 +16411,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -16419,7 +16427,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -16435,7 +16443,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -16451,7 +16459,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -16467,7 +16475,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -16483,7 +16491,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -16499,7 +16507,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -16515,7 +16523,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -16531,7 +16539,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -16547,7 +16555,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -16563,7 +16571,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -16579,7 +16587,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -16595,7 +16603,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -16611,7 +16619,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -16627,7 +16635,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -16643,7 +16651,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -16659,7 +16667,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -16675,7 +16683,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -16691,7 +16699,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -16707,7 +16715,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -16723,7 +16731,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -16739,7 +16747,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -16755,7 +16763,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -16771,7 +16779,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -16787,7 +16795,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -16803,7 +16811,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -16819,7 +16827,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -16835,7 +16843,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -16851,7 +16859,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -16867,7 +16875,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -16883,7 +16891,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -16899,7 +16907,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -16915,7 +16923,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -16931,7 +16939,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -16947,7 +16955,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -16963,7 +16971,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -16979,7 +16987,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -16995,7 +17003,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17011,7 +17019,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17027,7 +17035,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17043,7 +17051,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17059,7 +17067,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -17075,7 +17083,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -17091,7 +17099,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -17107,7 +17115,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -17123,7 +17131,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -17139,7 +17147,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -17155,7 +17163,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -17171,7 +17179,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -17187,7 +17195,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -17203,7 +17211,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -17219,7 +17227,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -17235,7 +17243,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -17251,7 +17259,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -17267,7 +17275,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -17283,7 +17291,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -17299,7 +17307,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -17315,7 +17323,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -17331,7 +17339,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -17347,7 +17355,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -17363,7 +17371,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -17379,7 +17387,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -17395,7 +17403,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -17411,7 +17419,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -17427,7 +17435,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -17443,7 +17451,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -17459,7 +17467,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -17475,7 +17483,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -17491,7 +17499,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -17507,7 +17515,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -17523,7 +17531,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -17539,7 +17547,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -17555,7 +17563,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -17571,7 +17579,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -17587,7 +17595,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -17603,7 +17611,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -17619,7 +17627,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -17635,7 +17643,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -17651,7 +17659,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -17667,7 +17675,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -17683,7 +17691,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -17699,7 +17707,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -17715,7 +17723,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -17731,7 +17739,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -17747,7 +17755,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -17763,7 +17771,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -17779,7 +17787,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -17795,7 +17803,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -17811,7 +17819,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -17827,7 +17835,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -17843,7 +17851,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -17859,7 +17867,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -17875,7 +17883,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -17891,7 +17899,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -17907,7 +17915,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -17923,7 +17931,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -17939,7 +17947,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -17955,7 +17963,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -17971,7 +17979,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -17987,7 +17995,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40"/>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -18003,7 +18011,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40"/>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -18019,7 +18027,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40"/>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -18035,7 +18043,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40"/>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -18051,7 +18059,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40"/>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -18067,7 +18075,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40"/>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -18083,7 +18091,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40"/>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -18099,7 +18107,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40"/>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -18115,7 +18123,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40"/>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -18131,7 +18139,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40"/>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -18147,7 +18155,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40"/>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -18163,7 +18171,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40"/>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -18179,7 +18187,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40"/>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -18195,7 +18203,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40"/>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -18211,7 +18219,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40"/>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -18227,7 +18235,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40"/>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -18243,7 +18251,7 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40"/>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -18259,7 +18267,7 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40"/>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -18275,7 +18283,7 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40"/>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -18291,7 +18299,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40"/>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -18307,7 +18315,7 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40"/>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -18323,7 +18331,7 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40"/>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -18339,7 +18347,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40"/>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -18355,7 +18363,7 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40"/>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -18371,7 +18379,7 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40"/>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -18387,7 +18395,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40"/>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -18403,7 +18411,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40"/>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -18419,7 +18427,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40"/>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -18435,7 +18443,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40"/>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -18451,7 +18459,7 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40"/>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -18467,7 +18475,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40"/>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -18483,7 +18491,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40"/>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -18499,7 +18507,7 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40"/>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -18515,7 +18523,7 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40"/>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -18531,7 +18539,7 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40"/>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -18547,7 +18555,7 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40"/>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -18563,7 +18571,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40"/>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -18579,7 +18587,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40"/>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -18595,7 +18603,7 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40"/>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -18611,7 +18619,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40"/>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -18627,7 +18635,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40"/>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -18643,7 +18651,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40"/>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -18659,7 +18667,7 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40"/>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -18675,7 +18683,7 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40"/>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -18691,7 +18699,7 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40"/>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -18707,7 +18715,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40"/>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -18723,7 +18731,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40"/>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -18739,7 +18747,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40"/>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -18755,7 +18763,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40"/>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -18771,7 +18779,7 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40"/>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -18787,7 +18795,7 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40"/>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -18803,21 +18811,37 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A812" s="41"/>
-      <c r="B812" s="15"/>
-      <c r="C812" s="42"/>
-      <c r="D812" s="43"/>
-      <c r="E812" s="52"/>
-      <c r="F812" s="15"/>
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A812" s="40"/>
+      <c r="B812" s="20"/>
+      <c r="C812" s="13"/>
+      <c r="D812" s="39"/>
+      <c r="E812" s="9"/>
+      <c r="F812" s="20"/>
       <c r="G812" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H812" s="43"/>
-      <c r="I812" s="52"/>
-      <c r="J812" s="12"/>
-      <c r="K812" s="15"/>
+      <c r="H812" s="39"/>
+      <c r="I812" s="9"/>
+      <c r="J812" s="11"/>
+      <c r="K812" s="20"/>
+    </row>
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A813" s="41"/>
+      <c r="B813" s="15"/>
+      <c r="C813" s="42"/>
+      <c r="D813" s="43"/>
+      <c r="E813" s="52"/>
+      <c r="F813" s="15"/>
+      <c r="G813" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H813" s="43"/>
+      <c r="I813" s="52"/>
+      <c r="J813" s="12"/>
+      <c r="K813" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18834,10 +18858,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18860,28 +18884,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -18894,7 +18918,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18923,7 +18947,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -18951,17 +18975,17 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18982,7 +19006,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19009,7 +19033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19035,7 +19059,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19061,7 +19085,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19087,7 +19111,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19113,7 +19137,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19139,7 +19163,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19165,7 +19189,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19191,7 +19215,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19211,7 +19235,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19231,7 +19255,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19251,7 +19275,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19272,7 +19296,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19293,7 +19317,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19314,7 +19338,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19335,7 +19359,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19356,7 +19380,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19377,7 +19401,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19398,7 +19422,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19419,7 +19443,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19440,7 +19464,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19461,7 +19485,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19482,7 +19506,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19503,7 +19527,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19524,7 +19548,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19545,7 +19569,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19566,7 +19590,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19587,7 +19611,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19608,7 +19632,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19629,7 +19653,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19650,7 +19674,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19671,7 +19695,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19680,7 +19704,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19689,7 +19713,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19698,7 +19722,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19707,7 +19731,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19716,7 +19740,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19725,7 +19749,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19734,7 +19758,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19743,7 +19767,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19752,7 +19776,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19761,7 +19785,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19770,7 +19794,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19779,7 +19803,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19788,7 +19812,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19797,7 +19821,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19806,7 +19830,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19815,7 +19839,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19824,7 +19848,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19833,7 +19857,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19842,7 +19866,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19851,7 +19875,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19860,7 +19884,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19869,7 +19893,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19878,7 +19902,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19887,7 +19911,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19896,7 +19920,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19905,7 +19929,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19914,7 +19938,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19923,7 +19947,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19932,7 +19956,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MANGUINAO, GILBERT.xlsx
+++ b/REGULAR/MANGUINAO, GILBERT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="326">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1719,7 +1719,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K813" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K816" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2048,12 +2048,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L813"/>
+  <dimension ref="A2:L816"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A567" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="I573" sqref="I573"/>
+      <selection pane="bottomLeft" activeCell="K578" sqref="K578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,7 +2217,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>145.93640000000016</v>
+        <v>148.68640000000016</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2227,7 +2227,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>111.04200000000003</v>
+        <v>110.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14856,13 +14856,15 @@
       <c r="B572" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C572" s="13"/>
+      <c r="C572" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D572" s="39"/>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
-      <c r="G572" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G572" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H572" s="39">
         <v>1</v>
@@ -14899,25 +14901,33 @@
       <c r="A574" s="40">
         <v>45139</v>
       </c>
-      <c r="B574" s="20"/>
-      <c r="C574" s="13"/>
-      <c r="D574" s="39"/>
+      <c r="B574" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D574" s="39">
+        <v>1</v>
+      </c>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G574" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="20"/>
+      <c r="K574" s="49">
+        <v>45156</v>
+      </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B575" s="20"/>
+      <c r="A575" s="40"/>
+      <c r="B575" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
       <c r="E575" s="9"/>
@@ -14926,16 +14936,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H575" s="39"/>
+      <c r="H575" s="39">
+        <v>1</v>
+      </c>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="20"/>
+      <c r="K575" s="49">
+        <v>45169</v>
+      </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B576" s="20"/>
+      <c r="A576" s="40"/>
+      <c r="B576" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C576" s="13"/>
       <c r="D576" s="39"/>
       <c r="E576" s="9"/>
@@ -14944,34 +14958,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H576" s="39"/>
+      <c r="H576" s="39">
+        <v>1</v>
+      </c>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="20"/>
+      <c r="K576" s="49">
+        <v>45167</v>
+      </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B577" s="20"/>
-      <c r="C577" s="13"/>
+        <v>45170</v>
+      </c>
+      <c r="B577" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C577" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D577" s="39"/>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H577" s="39"/>
+      <c r="G577" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H577" s="39">
+        <v>1</v>
+      </c>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20"/>
+      <c r="K577" s="49">
+        <v>45174</v>
+      </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A578" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B578" s="20"/>
+      <c r="A578" s="40"/>
+      <c r="B578" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C578" s="13"/>
       <c r="D578" s="39"/>
       <c r="E578" s="9"/>
@@ -14980,14 +15006,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H578" s="39"/>
+      <c r="H578" s="39">
+        <v>1</v>
+      </c>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20"/>
+      <c r="K578" s="49">
+        <v>45194</v>
+      </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15005,7 +15035,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15023,7 +15053,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15041,7 +15071,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15059,7 +15089,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15077,7 +15107,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15095,7 +15125,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15113,7 +15143,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15131,7 +15161,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15149,7 +15179,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15167,7 +15197,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15185,7 +15215,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15203,7 +15233,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15221,7 +15251,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15239,7 +15269,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15257,7 +15287,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15275,7 +15305,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15293,7 +15323,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15311,7 +15341,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15329,7 +15359,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15347,7 +15377,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15365,7 +15395,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15383,7 +15413,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15401,7 +15431,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15419,7 +15449,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15437,7 +15467,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15455,7 +15485,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15473,7 +15503,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15491,7 +15521,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15509,7 +15539,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15527,7 +15557,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15545,7 +15575,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15563,7 +15593,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15581,7 +15611,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15599,7 +15629,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15617,7 +15647,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46357</v>
+        <v>46266</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15635,7 +15665,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15653,7 +15683,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46419</v>
+        <v>46327</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15671,7 +15701,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46447</v>
+        <v>46357</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15689,7 +15719,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15707,7 +15737,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>46508</v>
+        <v>46419</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15725,7 +15755,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>46539</v>
+        <v>46447</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15743,7 +15773,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15761,7 +15791,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>46600</v>
+        <v>46508</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15779,7 +15809,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>46631</v>
+        <v>46539</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15797,7 +15827,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>46661</v>
+        <v>46569</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15815,7 +15845,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>46692</v>
+        <v>46600</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15833,7 +15863,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>46722</v>
+        <v>46631</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15851,7 +15881,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>46753</v>
+        <v>46661</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15868,7 +15898,9 @@
       <c r="K627" s="20"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="40"/>
+      <c r="A628" s="40">
+        <v>46692</v>
+      </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
       <c r="D628" s="39"/>
@@ -15884,7 +15916,9 @@
       <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="40"/>
+      <c r="A629" s="40">
+        <v>46722</v>
+      </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
       <c r="D629" s="39"/>
@@ -15900,7 +15934,9 @@
       <c r="K629" s="20"/>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A630" s="40"/>
+      <c r="A630" s="40">
+        <v>46753</v>
+      </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
       <c r="D630" s="39"/>
@@ -18828,20 +18864,68 @@
       <c r="K812" s="20"/>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A813" s="41"/>
-      <c r="B813" s="15"/>
-      <c r="C813" s="42"/>
-      <c r="D813" s="43"/>
-      <c r="E813" s="52"/>
-      <c r="F813" s="15"/>
+      <c r="A813" s="40"/>
+      <c r="B813" s="20"/>
+      <c r="C813" s="13"/>
+      <c r="D813" s="39"/>
+      <c r="E813" s="9"/>
+      <c r="F813" s="20"/>
       <c r="G813" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H813" s="43"/>
-      <c r="I813" s="52"/>
-      <c r="J813" s="12"/>
-      <c r="K813" s="15"/>
+      <c r="H813" s="39"/>
+      <c r="I813" s="9"/>
+      <c r="J813" s="11"/>
+      <c r="K813" s="20"/>
+    </row>
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A814" s="40"/>
+      <c r="B814" s="20"/>
+      <c r="C814" s="13"/>
+      <c r="D814" s="39"/>
+      <c r="E814" s="9"/>
+      <c r="F814" s="20"/>
+      <c r="G814" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H814" s="39"/>
+      <c r="I814" s="9"/>
+      <c r="J814" s="11"/>
+      <c r="K814" s="20"/>
+    </row>
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A815" s="40"/>
+      <c r="B815" s="20"/>
+      <c r="C815" s="13"/>
+      <c r="D815" s="39"/>
+      <c r="E815" s="9"/>
+      <c r="F815" s="20"/>
+      <c r="G815" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H815" s="39"/>
+      <c r="I815" s="9"/>
+      <c r="J815" s="11"/>
+      <c r="K815" s="20"/>
+    </row>
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A816" s="41"/>
+      <c r="B816" s="15"/>
+      <c r="C816" s="42"/>
+      <c r="D816" s="43"/>
+      <c r="E816" s="52"/>
+      <c r="F816" s="15"/>
+      <c r="G816" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H816" s="43"/>
+      <c r="I816" s="52"/>
+      <c r="J816" s="12"/>
+      <c r="K816" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MANGUINAO, GILBERT.xlsx
+++ b/REGULAR/MANGUINAO, GILBERT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="331">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1020,6 +1020,12 @@
   </si>
   <si>
     <t>11/28,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1/4,5/2024</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1734,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K817" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K818" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2057,12 +2063,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L817"/>
+  <dimension ref="A2:L818"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A567" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="J581" sqref="J581"/>
+      <selection pane="bottomLeft" activeCell="K584" sqref="K584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2232,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>151.18640000000016</v>
+        <v>152.43640000000016</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2236,7 +2242,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>107.29200000000003</v>
+        <v>106.54200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15103,13 +15109,15 @@
         <v>45261</v>
       </c>
       <c r="B582" s="20"/>
-      <c r="C582" s="13"/>
+      <c r="C582" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G582" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H582" s="39"/>
       <c r="I582" s="9"/>
@@ -15117,8 +15125,8 @@
       <c r="K582" s="20"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A583" s="40">
-        <v>45292</v>
+      <c r="A583" s="48" t="s">
+        <v>329</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15136,9 +15144,11 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B584" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B584" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
       <c r="E584" s="9"/>
@@ -15147,14 +15157,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H584" s="39"/>
+      <c r="H584" s="39">
+        <v>2</v>
+      </c>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="20"/>
+      <c r="K584" s="20" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15172,7 +15186,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15190,7 +15204,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15208,7 +15222,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15226,7 +15240,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15244,7 +15258,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15262,7 +15276,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15280,7 +15294,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15298,7 +15312,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15316,7 +15330,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15334,7 +15348,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15352,7 +15366,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15370,7 +15384,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15388,7 +15402,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15406,7 +15420,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15424,7 +15438,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15442,7 +15456,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15460,7 +15474,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15478,7 +15492,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15496,7 +15510,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15514,7 +15528,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15532,7 +15546,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15550,7 +15564,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15568,7 +15582,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15586,7 +15600,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15604,7 +15618,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15622,7 +15636,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15640,7 +15654,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15658,7 +15672,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15676,7 +15690,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15694,7 +15708,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15712,7 +15726,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15730,7 +15744,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15748,7 +15762,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15766,7 +15780,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15784,7 +15798,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15802,7 +15816,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15820,7 +15834,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15838,7 +15852,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15856,7 +15870,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15874,7 +15888,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15892,7 +15906,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15910,7 +15924,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15928,7 +15942,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15946,7 +15960,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15964,7 +15978,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15982,7 +15996,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15999,7 +16013,9 @@
       <c r="K631" s="20"/>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A632" s="40"/>
+      <c r="A632" s="40">
+        <v>46753</v>
+      </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
       <c r="D632" s="39"/>
@@ -18959,20 +18975,36 @@
       <c r="K816" s="20"/>
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A817" s="41"/>
-      <c r="B817" s="15"/>
-      <c r="C817" s="42"/>
-      <c r="D817" s="43"/>
-      <c r="E817" s="52"/>
-      <c r="F817" s="15"/>
+      <c r="A817" s="40"/>
+      <c r="B817" s="20"/>
+      <c r="C817" s="13"/>
+      <c r="D817" s="39"/>
+      <c r="E817" s="9"/>
+      <c r="F817" s="20"/>
       <c r="G817" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H817" s="43"/>
-      <c r="I817" s="52"/>
-      <c r="J817" s="12"/>
-      <c r="K817" s="15"/>
+      <c r="H817" s="39"/>
+      <c r="I817" s="9"/>
+      <c r="J817" s="11"/>
+      <c r="K817" s="20"/>
+    </row>
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A818" s="41"/>
+      <c r="B818" s="15"/>
+      <c r="C818" s="42"/>
+      <c r="D818" s="43"/>
+      <c r="E818" s="52"/>
+      <c r="F818" s="15"/>
+      <c r="G818" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H818" s="43"/>
+      <c r="I818" s="52"/>
+      <c r="J818" s="12"/>
+      <c r="K818" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MANGUINAO, GILBERT.xlsx
+++ b/REGULAR/MANGUINAO, GILBERT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="332">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1026,6 +1026,9 @@
   </si>
   <si>
     <t>1/4,5/2024</t>
+  </si>
+  <si>
+    <t>1/22,23/2024</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1737,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K818" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K819" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2063,12 +2066,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L818"/>
+  <dimension ref="A2:L819"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A567" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A576" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K584" sqref="K584"/>
+      <selection pane="bottomLeft" activeCell="K585" sqref="K585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2245,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.54200000000003</v>
+        <v>104.54200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15167,10 +15170,10 @@
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A585" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B585" s="20"/>
+      <c r="A585" s="40"/>
+      <c r="B585" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
       <c r="E585" s="9"/>
@@ -15179,14 +15182,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H585" s="39"/>
+      <c r="H585" s="39">
+        <v>2</v>
+      </c>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20"/>
+      <c r="K585" s="20" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15204,7 +15211,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15222,7 +15229,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15240,7 +15247,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15258,7 +15265,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15276,7 +15283,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15294,7 +15301,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15312,7 +15319,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15330,7 +15337,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15348,7 +15355,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15366,7 +15373,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15384,7 +15391,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15402,7 +15409,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15420,7 +15427,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15438,7 +15445,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15456,7 +15463,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15474,7 +15481,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15492,7 +15499,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15510,7 +15517,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15528,7 +15535,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15546,7 +15553,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15564,7 +15571,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15582,7 +15589,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15600,7 +15607,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15618,7 +15625,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15636,7 +15643,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15654,7 +15661,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15672,7 +15679,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15690,7 +15697,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15708,7 +15715,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15726,7 +15733,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15744,7 +15751,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15762,7 +15769,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15780,7 +15787,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15798,7 +15805,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15816,7 +15823,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15834,7 +15841,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15852,7 +15859,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15870,7 +15877,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15888,7 +15895,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15906,7 +15913,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15924,7 +15931,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15942,7 +15949,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15960,7 +15967,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15978,7 +15985,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15996,7 +16003,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16014,7 +16021,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16031,7 +16038,9 @@
       <c r="K632" s="20"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A633" s="40"/>
+      <c r="A633" s="40">
+        <v>46753</v>
+      </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
       <c r="D633" s="39"/>
@@ -18991,20 +19000,36 @@
       <c r="K817" s="20"/>
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A818" s="41"/>
-      <c r="B818" s="15"/>
-      <c r="C818" s="42"/>
-      <c r="D818" s="43"/>
-      <c r="E818" s="52"/>
-      <c r="F818" s="15"/>
+      <c r="A818" s="40"/>
+      <c r="B818" s="20"/>
+      <c r="C818" s="13"/>
+      <c r="D818" s="39"/>
+      <c r="E818" s="9"/>
+      <c r="F818" s="20"/>
       <c r="G818" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H818" s="43"/>
-      <c r="I818" s="52"/>
-      <c r="J818" s="12"/>
-      <c r="K818" s="15"/>
+      <c r="H818" s="39"/>
+      <c r="I818" s="9"/>
+      <c r="J818" s="11"/>
+      <c r="K818" s="20"/>
+    </row>
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A819" s="41"/>
+      <c r="B819" s="15"/>
+      <c r="C819" s="42"/>
+      <c r="D819" s="43"/>
+      <c r="E819" s="52"/>
+      <c r="F819" s="15"/>
+      <c r="G819" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H819" s="43"/>
+      <c r="I819" s="52"/>
+      <c r="J819" s="12"/>
+      <c r="K819" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MANGUINAO, GILBERT.xlsx
+++ b/REGULAR/MANGUINAO, GILBERT.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="332">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2068,10 +2068,10 @@
   </sheetPr>
   <dimension ref="A2:L819"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A576" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4245" topLeftCell="A575" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K585" sqref="K585"/>
+      <selection pane="bottomLeft" activeCell="E584" sqref="E584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,7 +2235,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>152.43640000000016</v>
+        <v>153.68640000000016</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2245,7 +2245,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>104.54200000000003</v>
+        <v>105.79200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15152,13 +15152,15 @@
       <c r="B584" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C584" s="13"/>
+      <c r="C584" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D584" s="39"/>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G584" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H584" s="39">
         <v>2</v>
@@ -15195,7 +15197,9 @@
       <c r="A586" s="40">
         <v>45323</v>
       </c>
-      <c r="B586" s="20"/>
+      <c r="B586" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="C586" s="13"/>
       <c r="D586" s="39"/>
       <c r="E586" s="9"/>
@@ -15207,7 +15211,9 @@
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="20"/>
+      <c r="K586" s="49">
+        <v>45324</v>
+      </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
